--- a/output/1Y_P1_KFSDIV.xlsx
+++ b/output/1Y_P1_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>7.3047</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.2901</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>7.7888</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="F3" s="1">
-        <v>1283.8948</v>
+        <v>1281.3285</v>
       </c>
       <c r="H3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E4" s="1">
-        <v>2652.8764</v>
+        <v>2647.5607</v>
       </c>
       <c r="F4" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="H4" s="1">
-        <v>21870.8439</v>
+        <v>21783.3351</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21870.8439</v>
+        <v>21783.3351</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>7.539</v>
+        <v>7.5541</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0585</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3865.8504</v>
+        <v>3858.1119</v>
       </c>
       <c r="F5" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="H5" s="1">
-        <v>34565.7282</v>
+        <v>34427.4753</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>34565.7282</v>
+        <v>34427.4753</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7603</v>
+        <v>7.7758</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>8.9801</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4984.256</v>
+        <v>4974.2829</v>
       </c>
       <c r="F6" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="H6" s="1">
-        <v>44759.1174</v>
+        <v>44580.0211</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>44759.1174</v>
+        <v>44580.0211</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>8.0253</v>
+        <v>8.041399999999999</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0043</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>8.6477</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>6097.8294</v>
+        <v>6085.6287</v>
       </c>
       <c r="F7" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="H7" s="1">
-        <v>52732.1989</v>
+        <v>52521.4096</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>52732.1989</v>
+        <v>52521.4096</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>8.1996</v>
+        <v>8.216100000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2242.9152</v>
+        <v>2238.4273</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7757.0848</v>
+        <v>-7761.5727</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.037</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>7254.2062</v>
+        <v>7239.6968</v>
       </c>
       <c r="F8" s="1">
-        <v>1084.1183</v>
+        <v>1081.8693</v>
       </c>
       <c r="H8" s="1">
-        <v>69414.77370000001</v>
+        <v>69137.65609999999</v>
       </c>
       <c r="I8" s="1">
-        <v>2242.9152</v>
+        <v>2238.4273</v>
       </c>
       <c r="J8" s="1">
-        <v>71657.68889999999</v>
+        <v>71376.0834</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>8.271100000000001</v>
+        <v>8.287599999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10373.8192</v>
+        <v>-10373.0712</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1423</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E9" s="1">
-        <v>8338.324500000001</v>
+        <v>8321.5661</v>
       </c>
       <c r="F9" s="1">
-        <v>1100.1569</v>
+        <v>1097.877</v>
       </c>
       <c r="H9" s="1">
-        <v>78625.39659999999</v>
+        <v>78310.0975</v>
       </c>
       <c r="I9" s="1">
-        <v>1869.096</v>
+        <v>1865.3561</v>
       </c>
       <c r="J9" s="1">
-        <v>80494.4926</v>
+        <v>80175.45359999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70373.8192</v>
+        <v>70373.07120000001</v>
       </c>
       <c r="L9" s="1">
-        <v>8.4398</v>
+        <v>8.4567</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10373.8192</v>
+        <v>-10373.0712</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0142</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E10" s="1">
-        <v>9438.481299999999</v>
+        <v>9419.4431</v>
       </c>
       <c r="F10" s="1">
-        <v>1080.1561</v>
+        <v>1077.9121</v>
       </c>
       <c r="H10" s="1">
-        <v>90646.2308</v>
+        <v>90283.4779</v>
       </c>
       <c r="I10" s="1">
-        <v>1495.2768</v>
+        <v>1492.2849</v>
       </c>
       <c r="J10" s="1">
-        <v>92141.5076</v>
+        <v>91775.7628</v>
       </c>
       <c r="K10" s="1">
-        <v>80747.6384</v>
+        <v>80746.1424</v>
       </c>
       <c r="L10" s="1">
-        <v>8.555199999999999</v>
+        <v>8.5723</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10373.8192</v>
+        <v>-10373.0712</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0182</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.3595</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>10518.6374</v>
+        <v>10497.3551</v>
       </c>
       <c r="F11" s="1">
-        <v>1001.3822</v>
+        <v>999.3036</v>
       </c>
       <c r="H11" s="1">
-        <v>108967.8244</v>
+        <v>108530.0553</v>
       </c>
       <c r="I11" s="1">
-        <v>1121.4576</v>
+        <v>1119.2137</v>
       </c>
       <c r="J11" s="1">
-        <v>110089.282</v>
+        <v>109649.269</v>
       </c>
       <c r="K11" s="1">
-        <v>91121.45759999999</v>
+        <v>91119.21369999999</v>
       </c>
       <c r="L11" s="1">
-        <v>8.6629</v>
+        <v>8.680199999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10373.8192</v>
+        <v>-10373.0712</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07779999999999999</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E12" s="1">
-        <v>11520.0197</v>
+        <v>11496.6587</v>
       </c>
       <c r="F12" s="1">
-        <v>1028.3836</v>
+        <v>1026.2544</v>
       </c>
       <c r="H12" s="1">
-        <v>116208.1983</v>
+        <v>115740.3126</v>
       </c>
       <c r="I12" s="1">
-        <v>747.6384</v>
+        <v>746.1424</v>
       </c>
       <c r="J12" s="1">
-        <v>116955.8367</v>
+        <v>116486.455</v>
       </c>
       <c r="K12" s="1">
-        <v>101495.2768</v>
+        <v>101492.2849</v>
       </c>
       <c r="L12" s="1">
-        <v>8.8103</v>
+        <v>8.827999999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10373.8192</v>
+        <v>-10373.0712</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0261</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E13" s="1">
-        <v>12548.4032</v>
+        <v>12522.9131</v>
       </c>
       <c r="F13" s="1">
-        <v>1020.1215</v>
+        <v>1018.0057</v>
       </c>
       <c r="H13" s="1">
-        <v>127607.222</v>
+        <v>127093.7928</v>
       </c>
       <c r="I13" s="1">
-        <v>373.8192</v>
+        <v>373.0712</v>
       </c>
       <c r="J13" s="1">
-        <v>127981.0412</v>
+        <v>127466.8641</v>
       </c>
       <c r="K13" s="1">
-        <v>111869.096</v>
+        <v>111865.3561</v>
       </c>
       <c r="L13" s="1">
-        <v>8.914999999999999</v>
+        <v>8.9329</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>3110.4053</v>
+        <v>3104.0979</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7263.4139</v>
+        <v>-7268.9734</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0081</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.0872</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E14" s="1">
-        <v>13568.5247</v>
+        <v>13540.9188</v>
       </c>
       <c r="F14" s="1">
-        <v>-13568.5247</v>
+        <v>-13540.9188</v>
       </c>
       <c r="H14" s="1">
-        <v>150436.9469</v>
+        <v>149830.267</v>
       </c>
       <c r="I14" s="1">
-        <v>3110.4053</v>
+        <v>3104.0979</v>
       </c>
       <c r="J14" s="1">
-        <v>153547.3522</v>
+        <v>152934.3648</v>
       </c>
       <c r="K14" s="1">
-        <v>122242.9152</v>
+        <v>122238.4273</v>
       </c>
       <c r="L14" s="1">
-        <v>9.0093</v>
+        <v>9.0273</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>150436.9469</v>
+        <v>149830.267</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1128</v>
+        <v>0.1125</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>7.3047</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.2901</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>7.7888</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="F3" s="1">
-        <v>1198.808</v>
+        <v>1206.7107</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9337.276</v>
+        <v>-9417.653200000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E4" s="1">
-        <v>2567.7896</v>
+        <v>2572.9429</v>
       </c>
       <c r="F4" s="1">
-        <v>1071.1323</v>
+        <v>1073.2765</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21169.3714</v>
+        <v>21169.4026</v>
       </c>
       <c r="I4" s="1">
-        <v>662.724</v>
+        <v>582.3468</v>
       </c>
       <c r="J4" s="1">
-        <v>21832.0954</v>
+        <v>21751.7494</v>
       </c>
       <c r="K4" s="1">
-        <v>19337.276</v>
+        <v>19417.6532</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5307</v>
+        <v>7.5469</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8830.6286</v>
+        <v>-8866.015600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0566</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3638.9219</v>
+        <v>3646.2195</v>
       </c>
       <c r="F5" s="1">
-        <v>834.7005</v>
+        <v>836.3768</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32536.6925</v>
+        <v>32536.6749</v>
       </c>
       <c r="I5" s="1">
-        <v>1832.0954</v>
+        <v>1716.3312</v>
       </c>
       <c r="J5" s="1">
-        <v>34368.7879</v>
+        <v>34253.0061</v>
       </c>
       <c r="K5" s="1">
-        <v>28167.9046</v>
+        <v>28283.6688</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7407</v>
+        <v>7.757</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7463.3075</v>
+        <v>-7493.2674</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07969999999999999</v>
+        <v>0.0788</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>8.9801</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4473.6224</v>
+        <v>4482.5963</v>
       </c>
       <c r="F6" s="1">
-        <v>1094.2443</v>
+        <v>1096.4532</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40173.5765</v>
+        <v>40173.4765</v>
       </c>
       <c r="I6" s="1">
-        <v>4368.7879</v>
+        <v>4223.0638</v>
       </c>
       <c r="J6" s="1">
-        <v>44542.3644</v>
+        <v>44396.5403</v>
       </c>
       <c r="K6" s="1">
-        <v>35631.2121</v>
+        <v>35776.9362</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9647</v>
+        <v>7.9813</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9826.423500000001</v>
+        <v>-9865.995800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0039</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>8.6477</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>5567.8667</v>
+        <v>5579.0496</v>
       </c>
       <c r="F7" s="1">
-        <v>1370.3943</v>
+        <v>1373.1195</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48149.2411</v>
+        <v>48149.4293</v>
       </c>
       <c r="I7" s="1">
-        <v>4542.3644</v>
+        <v>4357.068</v>
       </c>
       <c r="J7" s="1">
-        <v>52691.6055</v>
+        <v>52506.4973</v>
       </c>
       <c r="K7" s="1">
-        <v>45457.6356</v>
+        <v>45642.932</v>
       </c>
       <c r="L7" s="1">
-        <v>8.164300000000001</v>
+        <v>8.181100000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2013.1301</v>
+        <v>2017.1683</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9837.6288</v>
+        <v>-9880.9123</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0339</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>6938.261</v>
+        <v>6952.1691</v>
       </c>
       <c r="F8" s="1">
-        <v>377.1044</v>
+        <v>377.8274</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>66391.5261</v>
+        <v>66391.8242</v>
       </c>
       <c r="I8" s="1">
-        <v>4704.7356</v>
+        <v>4476.1557</v>
       </c>
       <c r="J8" s="1">
-        <v>71096.2617</v>
+        <v>70867.97990000001</v>
       </c>
       <c r="K8" s="1">
-        <v>57308.3945</v>
+        <v>57541.0127</v>
       </c>
       <c r="L8" s="1">
-        <v>8.2598</v>
+        <v>8.2767</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3608.4739</v>
+        <v>-3622.6465</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1341</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E9" s="1">
-        <v>7315.3654</v>
+        <v>7329.9964</v>
       </c>
       <c r="F9" s="1">
-        <v>1168.7375</v>
+        <v>1171.1459</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68979.5065</v>
+        <v>68978.93150000001</v>
       </c>
       <c r="I9" s="1">
-        <v>11096.2617</v>
+        <v>10853.5091</v>
       </c>
       <c r="J9" s="1">
-        <v>80075.76820000001</v>
+        <v>79832.4406</v>
       </c>
       <c r="K9" s="1">
-        <v>60916.8684</v>
+        <v>61163.6592</v>
       </c>
       <c r="L9" s="1">
-        <v>8.327199999999999</v>
+        <v>8.3443</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11020.4935</v>
+        <v>-11065.3378</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0126</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E10" s="1">
-        <v>8484.1029</v>
+        <v>8501.1423</v>
       </c>
       <c r="F10" s="1">
-        <v>887.09</v>
+        <v>888.7249</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81480.476</v>
+        <v>81481.7491</v>
       </c>
       <c r="I10" s="1">
-        <v>10075.7682</v>
+        <v>9788.1713</v>
       </c>
       <c r="J10" s="1">
-        <v>91556.2442</v>
+        <v>91269.9204</v>
       </c>
       <c r="K10" s="1">
-        <v>71937.3619</v>
+        <v>72228.997</v>
       </c>
       <c r="L10" s="1">
-        <v>8.479100000000001</v>
+        <v>8.4964</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8519.612800000001</v>
+        <v>-8552.4668</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0164</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.3595</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>9371.192999999999</v>
+        <v>9389.8673</v>
       </c>
       <c r="F11" s="1">
-        <v>281.7826</v>
+        <v>282.4351</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>97080.8734</v>
+        <v>97079.9599</v>
       </c>
       <c r="I11" s="1">
-        <v>11556.1554</v>
+        <v>11235.7045</v>
       </c>
       <c r="J11" s="1">
-        <v>108637.0288</v>
+        <v>108315.6644</v>
       </c>
       <c r="K11" s="1">
-        <v>80456.9746</v>
+        <v>80781.4638</v>
       </c>
       <c r="L11" s="1">
-        <v>8.585599999999999</v>
+        <v>8.603</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2919.1266</v>
+        <v>-2931.7611</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0697</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E12" s="1">
-        <v>9652.9755</v>
+        <v>9672.3024</v>
       </c>
       <c r="F12" s="1">
-        <v>1251.6094</v>
+        <v>1254.1625</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97374.3907</v>
+        <v>97373.9699</v>
       </c>
       <c r="I12" s="1">
-        <v>18637.0288</v>
+        <v>18303.9434</v>
       </c>
       <c r="J12" s="1">
-        <v>116011.4195</v>
+        <v>115677.9133</v>
       </c>
       <c r="K12" s="1">
-        <v>83376.1012</v>
+        <v>83713.22500000001</v>
       </c>
       <c r="L12" s="1">
-        <v>8.6373</v>
+        <v>8.6549</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12625.6093</v>
+        <v>-12676.6983</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0221</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E13" s="1">
-        <v>10904.5849</v>
+        <v>10926.4649</v>
       </c>
       <c r="F13" s="1">
-        <v>895.7534000000001</v>
+        <v>897.4766</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110890.9046</v>
+        <v>110891.5995</v>
       </c>
       <c r="I13" s="1">
-        <v>16011.4195</v>
+        <v>15627.2451</v>
       </c>
       <c r="J13" s="1">
-        <v>126902.3241</v>
+        <v>126518.8447</v>
       </c>
       <c r="K13" s="1">
-        <v>96001.71060000001</v>
+        <v>96389.9232</v>
       </c>
       <c r="L13" s="1">
-        <v>8.803800000000001</v>
+        <v>8.8217</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2606.3034</v>
+        <v>2611.5216</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6502.792</v>
+        <v>-6533.4061</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0071</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.0872</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E14" s="1">
-        <v>11800.3383</v>
+        <v>11823.9415</v>
       </c>
       <c r="F14" s="1">
-        <v>-11800.3383</v>
+        <v>-11823.9415</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130832.7105</v>
+        <v>130831.9128</v>
       </c>
       <c r="I14" s="1">
-        <v>19508.6275</v>
+        <v>19093.839</v>
       </c>
       <c r="J14" s="1">
-        <v>150341.338</v>
+        <v>149925.7518</v>
       </c>
       <c r="K14" s="1">
-        <v>105110.806</v>
+        <v>105534.851</v>
       </c>
       <c r="L14" s="1">
-        <v>8.907400000000001</v>
+        <v>8.9255</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130832.7105</v>
+        <v>130831.9128</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0982</v>
@@ -2224,16 +2224,16 @@
         <v>7.3047</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.2901</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>7.7888</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="F3" s="1">
-        <v>1205.2275</v>
+        <v>1213.1431</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9387.276</v>
+        <v>-9467.8539</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E4" s="1">
-        <v>2574.2091</v>
+        <v>2579.3753</v>
       </c>
       <c r="F4" s="1">
-        <v>1082.9377</v>
+        <v>1085.1057</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21222.2948</v>
+        <v>21222.3261</v>
       </c>
       <c r="I4" s="1">
-        <v>612.724</v>
+        <v>532.1461</v>
       </c>
       <c r="J4" s="1">
-        <v>21835.0188</v>
+        <v>21754.4722</v>
       </c>
       <c r="K4" s="1">
-        <v>19387.276</v>
+        <v>19467.8539</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5314</v>
+        <v>7.5475</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8927.9552</v>
+        <v>-8963.732400000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0567</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3657.1468</v>
+        <v>3664.481</v>
       </c>
       <c r="F5" s="1">
-        <v>850.1396999999999</v>
+        <v>851.847</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32699.6471</v>
+        <v>32699.6294</v>
       </c>
       <c r="I5" s="1">
-        <v>1684.7688</v>
+        <v>1568.4137</v>
       </c>
       <c r="J5" s="1">
-        <v>34384.4159</v>
+        <v>34268.0431</v>
       </c>
       <c r="K5" s="1">
-        <v>28315.2312</v>
+        <v>28431.5863</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7424</v>
+        <v>7.7587</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7601.3542</v>
+        <v>-7631.868</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0801</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>8.9801</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4507.2866</v>
+        <v>4516.328</v>
       </c>
       <c r="F6" s="1">
-        <v>1116.5379</v>
+        <v>1118.7917</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40475.884</v>
+        <v>40475.7831</v>
       </c>
       <c r="I6" s="1">
-        <v>4083.4146</v>
+        <v>3936.5457</v>
       </c>
       <c r="J6" s="1">
-        <v>44559.2986</v>
+        <v>44412.3289</v>
       </c>
       <c r="K6" s="1">
-        <v>35916.5854</v>
+        <v>36063.4543</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9686</v>
+        <v>7.9851</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10026.6223</v>
+        <v>-10066.9996</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0039</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>8.6477</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>5623.8245</v>
+        <v>5635.1197</v>
       </c>
       <c r="F7" s="1">
-        <v>1401.7452</v>
+        <v>1404.533</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48633.147</v>
+        <v>48633.3371</v>
       </c>
       <c r="I7" s="1">
-        <v>4056.7924</v>
+        <v>3869.5461</v>
       </c>
       <c r="J7" s="1">
-        <v>52689.9394</v>
+        <v>52502.8832</v>
       </c>
       <c r="K7" s="1">
-        <v>45943.2076</v>
+        <v>46130.4539</v>
       </c>
       <c r="L7" s="1">
-        <v>8.1694</v>
+        <v>8.186199999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2028.2789</v>
+        <v>2032.3476</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10093.5928</v>
+        <v>-10137.931</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0343</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>7025.5697</v>
+        <v>7039.6527</v>
       </c>
       <c r="F8" s="1">
-        <v>400.4452</v>
+        <v>401.2145</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>67226.9736</v>
+        <v>67227.2755</v>
       </c>
       <c r="I8" s="1">
-        <v>3963.1995</v>
+        <v>3731.6151</v>
       </c>
       <c r="J8" s="1">
-        <v>71190.1731</v>
+        <v>70958.8906</v>
       </c>
       <c r="K8" s="1">
-        <v>58065.0794</v>
+        <v>58300.7325</v>
       </c>
       <c r="L8" s="1">
-        <v>8.264799999999999</v>
+        <v>8.2818</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3831.8203</v>
+        <v>-3846.8849</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1356</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E9" s="1">
-        <v>7426.0149</v>
+        <v>7440.8672</v>
       </c>
       <c r="F9" s="1">
-        <v>1208.0539</v>
+        <v>1210.5421</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70022.8648</v>
+        <v>70022.28109999999</v>
       </c>
       <c r="I9" s="1">
-        <v>10131.3792</v>
+        <v>9884.7302</v>
       </c>
       <c r="J9" s="1">
-        <v>80154.24400000001</v>
+        <v>79907.0113</v>
       </c>
       <c r="K9" s="1">
-        <v>61896.8997</v>
+        <v>62147.6174</v>
       </c>
       <c r="L9" s="1">
-        <v>8.335100000000001</v>
+        <v>8.3522</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11391.223</v>
+        <v>-11437.5653</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0128</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E10" s="1">
-        <v>8634.0687</v>
+        <v>8651.4094</v>
       </c>
       <c r="F10" s="1">
-        <v>926.7512</v>
+        <v>928.4628</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82920.7328</v>
+        <v>82922.0285</v>
       </c>
       <c r="I10" s="1">
-        <v>8740.156199999999</v>
+        <v>8447.165000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>91660.889</v>
+        <v>91369.19349999999</v>
       </c>
       <c r="K10" s="1">
-        <v>73288.1228</v>
+        <v>73585.1826</v>
       </c>
       <c r="L10" s="1">
-        <v>8.488200000000001</v>
+        <v>8.505599999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8900.518099999999</v>
+        <v>-8934.875599999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0167</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.3595</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>9560.8199</v>
+        <v>9579.872100000001</v>
       </c>
       <c r="F11" s="1">
-        <v>312.269</v>
+        <v>312.9843</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99045.3138</v>
+        <v>99044.38189999999</v>
       </c>
       <c r="I11" s="1">
-        <v>9839.638000000001</v>
+        <v>9512.2894</v>
       </c>
       <c r="J11" s="1">
-        <v>108884.9518</v>
+        <v>108556.6712</v>
       </c>
       <c r="K11" s="1">
-        <v>82188.6409</v>
+        <v>82520.0582</v>
       </c>
       <c r="L11" s="1">
-        <v>8.596399999999999</v>
+        <v>8.613899999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3234.9503</v>
+        <v>-3248.8711</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0711</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E12" s="1">
-        <v>9873.088900000001</v>
+        <v>9892.856400000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1308.241</v>
+        <v>1310.9088</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99594.78389999999</v>
+        <v>99594.3536</v>
       </c>
       <c r="I12" s="1">
-        <v>16604.6878</v>
+        <v>16263.4183</v>
       </c>
       <c r="J12" s="1">
-        <v>116199.4717</v>
+        <v>115857.7719</v>
       </c>
       <c r="K12" s="1">
-        <v>85423.5912</v>
+        <v>85768.9293</v>
       </c>
       <c r="L12" s="1">
-        <v>8.652200000000001</v>
+        <v>8.6698</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13196.8815</v>
+        <v>-13250.2726</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0226</v>
+        <v>-0.0228</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E13" s="1">
-        <v>11181.3299</v>
+        <v>11203.7652</v>
       </c>
       <c r="F13" s="1">
-        <v>948.9875</v>
+        <v>950.8155</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113705.1801</v>
+        <v>113705.8926</v>
       </c>
       <c r="I13" s="1">
-        <v>13407.8063</v>
+        <v>13013.1457</v>
       </c>
       <c r="J13" s="1">
-        <v>127112.9863</v>
+        <v>126719.0384</v>
       </c>
       <c r="K13" s="1">
-        <v>98620.4727</v>
+        <v>99019.2019</v>
       </c>
       <c r="L13" s="1">
-        <v>8.8201</v>
+        <v>8.837999999999999</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2665.734</v>
+        <v>2671.0712</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6984.7097</v>
+        <v>-7017.358</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0072</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.0872</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E14" s="1">
-        <v>12130.3174</v>
+        <v>12154.5807</v>
       </c>
       <c r="F14" s="1">
-        <v>-12130.3174</v>
+        <v>-12154.5807</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134491.2551</v>
+        <v>134490.4351</v>
       </c>
       <c r="I14" s="1">
-        <v>16423.0966</v>
+        <v>15995.7877</v>
       </c>
       <c r="J14" s="1">
-        <v>150914.3517</v>
+        <v>150486.2228</v>
       </c>
       <c r="K14" s="1">
-        <v>108270.9164</v>
+        <v>108707.6311</v>
       </c>
       <c r="L14" s="1">
-        <v>8.925599999999999</v>
+        <v>8.9438</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134491.2551</v>
+        <v>134490.4351</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1007</v>
@@ -2992,16 +2992,16 @@
         <v>7.3047</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.2901</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>7.7888</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="F3" s="1">
-        <v>1211.647</v>
+        <v>1219.5754</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9437.276</v>
+        <v>-9518.054599999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E4" s="1">
-        <v>2580.6286</v>
+        <v>2585.8076</v>
       </c>
       <c r="F4" s="1">
-        <v>1094.8038</v>
+        <v>1096.9956</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21275.2183</v>
+        <v>21275.2496</v>
       </c>
       <c r="I4" s="1">
-        <v>562.724</v>
+        <v>481.9454</v>
       </c>
       <c r="J4" s="1">
-        <v>21837.9423</v>
+        <v>21757.195</v>
       </c>
       <c r="K4" s="1">
-        <v>19437.276</v>
+        <v>19518.0546</v>
       </c>
       <c r="L4" s="1">
-        <v>7.532</v>
+        <v>7.5481</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9025.7817</v>
+        <v>-9061.951300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0569</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3675.4324</v>
+        <v>3682.8032</v>
       </c>
       <c r="F5" s="1">
-        <v>865.7428</v>
+        <v>867.4814</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32863.1439</v>
+        <v>32863.1262</v>
       </c>
       <c r="I5" s="1">
-        <v>1536.9423</v>
+        <v>1419.9941</v>
       </c>
       <c r="J5" s="1">
-        <v>34400.0862</v>
+        <v>34283.1203</v>
       </c>
       <c r="K5" s="1">
-        <v>28463.0577</v>
+        <v>28580.0059</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7441</v>
+        <v>7.7604</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7740.8661</v>
+        <v>-7771.9396</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0805</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>8.9801</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4541.1752</v>
+        <v>4550.2846</v>
       </c>
       <c r="F6" s="1">
-        <v>1139.168</v>
+        <v>1141.4673</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40780.2076</v>
+        <v>40780.106</v>
       </c>
       <c r="I6" s="1">
-        <v>3796.0762</v>
+        <v>3648.0545</v>
       </c>
       <c r="J6" s="1">
-        <v>44576.2838</v>
+        <v>44428.1605</v>
       </c>
       <c r="K6" s="1">
-        <v>36203.9238</v>
+        <v>36351.9455</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9724</v>
+        <v>7.9889</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10229.8425</v>
+        <v>-10271.0369</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>8.6477</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>5680.3432</v>
+        <v>5691.7519</v>
       </c>
       <c r="F7" s="1">
-        <v>1433.7045</v>
+        <v>1436.5562</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49121.904</v>
+        <v>49122.096</v>
       </c>
       <c r="I7" s="1">
-        <v>3566.2337</v>
+        <v>3377.0176</v>
       </c>
       <c r="J7" s="1">
-        <v>52688.1377</v>
+        <v>52499.1136</v>
       </c>
       <c r="K7" s="1">
-        <v>46433.7663</v>
+        <v>46622.9824</v>
       </c>
       <c r="L7" s="1">
-        <v>8.1745</v>
+        <v>8.1913</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2043.5288</v>
+        <v>2047.6281</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10354.7177</v>
+        <v>-10400.1314</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0346</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>7114.0477</v>
+        <v>7128.3081</v>
       </c>
       <c r="F8" s="1">
-        <v>424.4731</v>
+        <v>425.2901</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>68073.61139999999</v>
+        <v>68073.91710000001</v>
       </c>
       <c r="I8" s="1">
-        <v>3211.516</v>
+        <v>2976.8862</v>
       </c>
       <c r="J8" s="1">
-        <v>71285.12729999999</v>
+        <v>71050.8033</v>
       </c>
       <c r="K8" s="1">
-        <v>58832.0129</v>
+        <v>59070.7419</v>
       </c>
       <c r="L8" s="1">
-        <v>8.2698</v>
+        <v>8.286799999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4061.7407</v>
+        <v>-4077.7236</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1371</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E9" s="1">
-        <v>7538.5208</v>
+        <v>7553.5982</v>
       </c>
       <c r="F9" s="1">
-        <v>1248.5394</v>
+        <v>1251.1099</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71083.72840000001</v>
+        <v>71083.13589999999</v>
       </c>
       <c r="I9" s="1">
-        <v>9149.7752</v>
+        <v>8899.1626</v>
       </c>
       <c r="J9" s="1">
-        <v>80233.5037</v>
+        <v>79982.2985</v>
       </c>
       <c r="K9" s="1">
-        <v>62893.7536</v>
+        <v>63148.4655</v>
       </c>
       <c r="L9" s="1">
-        <v>8.343</v>
+        <v>8.360099999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11772.9772</v>
+        <v>-11820.8617</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0129</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E10" s="1">
-        <v>8787.0602</v>
+        <v>8804.7081</v>
       </c>
       <c r="F10" s="1">
-        <v>967.8594000000001</v>
+        <v>969.6505</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84390.04760000001</v>
+        <v>84391.36629999999</v>
       </c>
       <c r="I10" s="1">
-        <v>7376.7981</v>
+        <v>7078.3009</v>
       </c>
       <c r="J10" s="1">
-        <v>91766.84570000001</v>
+        <v>91469.6672</v>
       </c>
       <c r="K10" s="1">
-        <v>74666.7308</v>
+        <v>74969.3272</v>
       </c>
       <c r="L10" s="1">
-        <v>8.497400000000001</v>
+        <v>8.514699999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9295.3218</v>
+        <v>-9331.237999999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.017</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.3595</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>9754.919599999999</v>
+        <v>9774.3586</v>
       </c>
       <c r="F11" s="1">
-        <v>344.2285</v>
+        <v>345.0097</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101056.09</v>
+        <v>101055.1391</v>
       </c>
       <c r="I11" s="1">
-        <v>8081.4762</v>
+        <v>7747.0629</v>
       </c>
       <c r="J11" s="1">
-        <v>109137.5662</v>
+        <v>108802.202</v>
       </c>
       <c r="K11" s="1">
-        <v>83962.0526</v>
+        <v>84300.5652</v>
       </c>
       <c r="L11" s="1">
-        <v>8.607100000000001</v>
+        <v>8.624700000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3566.0355</v>
+        <v>-3581.3042</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07240000000000001</v>
+        <v>0.0723</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E12" s="1">
-        <v>10099.1482</v>
+        <v>10119.3683</v>
       </c>
       <c r="F12" s="1">
-        <v>1367.3546</v>
+        <v>1370.1419</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101875.1571</v>
+        <v>101874.7169</v>
       </c>
       <c r="I12" s="1">
-        <v>14515.4408</v>
+        <v>14165.7587</v>
       </c>
       <c r="J12" s="1">
-        <v>116390.5979</v>
+        <v>116040.4756</v>
       </c>
       <c r="K12" s="1">
-        <v>87528.08809999999</v>
+        <v>87881.8694</v>
       </c>
       <c r="L12" s="1">
-        <v>8.6669</v>
+        <v>8.6845</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13793.1896</v>
+        <v>-13848.9835</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0231</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E13" s="1">
-        <v>11466.5028</v>
+        <v>11489.5103</v>
       </c>
       <c r="F13" s="1">
-        <v>1004.9827</v>
+        <v>1006.9209</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116605.1599</v>
+        <v>116605.8907</v>
       </c>
       <c r="I13" s="1">
-        <v>10722.2512</v>
+        <v>10316.7752</v>
       </c>
       <c r="J13" s="1">
-        <v>127327.4112</v>
+        <v>126922.6659</v>
       </c>
       <c r="K13" s="1">
-        <v>101321.2776</v>
+        <v>101730.8529</v>
       </c>
       <c r="L13" s="1">
-        <v>8.8363</v>
+        <v>8.854200000000001</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2726.77</v>
+        <v>2732.2295</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7493.1002</v>
+        <v>-7527.8917</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0074</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.0872</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E14" s="1">
-        <v>12471.4855</v>
+        <v>12496.4312</v>
       </c>
       <c r="F14" s="1">
-        <v>-12471.4855</v>
+        <v>-12496.4312</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>138273.8538</v>
+        <v>138273.0107</v>
       </c>
       <c r="I14" s="1">
-        <v>13229.151</v>
+        <v>12788.8836</v>
       </c>
       <c r="J14" s="1">
-        <v>151503.0048</v>
+        <v>151061.8943</v>
       </c>
       <c r="K14" s="1">
-        <v>111541.1478</v>
+        <v>111990.974</v>
       </c>
       <c r="L14" s="1">
-        <v>8.9437</v>
+        <v>8.9618</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>138273.8538</v>
+        <v>138273.0107</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1032</v>
+        <v>0.1033</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3688,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>7.3047</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.2901</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>7.7888</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7732</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.8044</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1366.2322</v>
       </c>
       <c r="F3" s="1">
-        <v>1218.0665</v>
+        <v>1226.0078</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10662.724</v>
+        <v>10619.9962</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3194</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9487.276</v>
+        <v>-9568.255300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E4" s="1">
-        <v>2587.0481</v>
+        <v>2592.24</v>
       </c>
       <c r="F4" s="1">
-        <v>1106.7306</v>
+        <v>1108.9462</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21328.1417</v>
+        <v>21328.1731</v>
       </c>
       <c r="I4" s="1">
-        <v>512.724</v>
+        <v>431.7447</v>
       </c>
       <c r="J4" s="1">
-        <v>21840.8657</v>
+        <v>21759.9178</v>
       </c>
       <c r="K4" s="1">
-        <v>19487.276</v>
+        <v>19568.2553</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5326</v>
+        <v>7.5488</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9124.1083</v>
+        <v>-9160.6721</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.057</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3693.7787</v>
+        <v>3701.1862</v>
       </c>
       <c r="F5" s="1">
-        <v>881.5106</v>
+        <v>883.2809</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>33027.1831</v>
+        <v>33027.1653</v>
       </c>
       <c r="I5" s="1">
-        <v>1388.6157</v>
+        <v>1271.0726</v>
       </c>
       <c r="J5" s="1">
-        <v>34415.7988</v>
+        <v>34298.2379</v>
       </c>
       <c r="K5" s="1">
-        <v>28611.3843</v>
+        <v>28728.9274</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7458</v>
+        <v>7.7621</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7881.8506</v>
+        <v>-7913.4899</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0809</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>8.9801</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4575.2892</v>
+        <v>4584.4671</v>
       </c>
       <c r="F6" s="1">
-        <v>1162.1379</v>
+        <v>1164.4834</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41086.555</v>
+        <v>41086.4526</v>
       </c>
       <c r="I6" s="1">
-        <v>3506.765</v>
+        <v>3357.5826</v>
       </c>
       <c r="J6" s="1">
-        <v>44593.32</v>
+        <v>44444.0353</v>
       </c>
       <c r="K6" s="1">
-        <v>36493.235</v>
+        <v>36642.4174</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9762</v>
+        <v>7.9927</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10436.1143</v>
+        <v>-10478.138</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>8.6477</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>5737.4271</v>
+        <v>5748.9505</v>
       </c>
       <c r="F7" s="1">
-        <v>1466.2813</v>
+        <v>1469.1981</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49615.5485</v>
+        <v>49615.7424</v>
       </c>
       <c r="I7" s="1">
-        <v>3070.6508</v>
+        <v>2879.4446</v>
       </c>
       <c r="J7" s="1">
-        <v>52686.1992</v>
+        <v>52495.187</v>
       </c>
       <c r="K7" s="1">
-        <v>46929.3492</v>
+        <v>47120.5554</v>
       </c>
       <c r="L7" s="1">
-        <v>8.179500000000001</v>
+        <v>8.196400000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2058.8802</v>
+        <v>2063.0102</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10621.0807</v>
+        <v>-10667.591</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0349</v>
+        <v>-0.0358</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>7203.7084</v>
+        <v>7218.1486</v>
       </c>
       <c r="F8" s="1">
-        <v>449.2028</v>
+        <v>450.0688</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>68931.5655</v>
+        <v>68931.8751</v>
       </c>
       <c r="I8" s="1">
-        <v>2449.5701</v>
+        <v>2211.8536</v>
       </c>
       <c r="J8" s="1">
-        <v>71381.13559999999</v>
+        <v>71143.72870000001</v>
       </c>
       <c r="K8" s="1">
-        <v>59609.3101</v>
+        <v>59851.1566</v>
       </c>
       <c r="L8" s="1">
-        <v>8.274800000000001</v>
+        <v>8.2918</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4298.3764</v>
+        <v>-4315.3045</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1387</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E9" s="1">
-        <v>7652.9112</v>
+        <v>7668.2173</v>
       </c>
       <c r="F9" s="1">
-        <v>1290.2232</v>
+        <v>1292.8784</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>72162.36079999999</v>
+        <v>72161.75930000001</v>
       </c>
       <c r="I9" s="1">
-        <v>8151.1937</v>
+        <v>7896.5491</v>
       </c>
       <c r="J9" s="1">
-        <v>80313.5545</v>
+        <v>80058.30839999999</v>
       </c>
       <c r="K9" s="1">
-        <v>63907.6865</v>
+        <v>64166.461</v>
       </c>
       <c r="L9" s="1">
-        <v>8.3508</v>
+        <v>8.367800000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12166.0302</v>
+        <v>-12215.5026</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0131</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E10" s="1">
-        <v>8943.134400000001</v>
+        <v>8961.0957</v>
       </c>
       <c r="F10" s="1">
-        <v>1010.4592</v>
+        <v>1012.3327</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85888.96799999999</v>
+        <v>85890.31</v>
       </c>
       <c r="I10" s="1">
-        <v>5985.1634</v>
+        <v>5681.0465</v>
       </c>
       <c r="J10" s="1">
-        <v>91874.1314</v>
+        <v>91571.3566</v>
       </c>
       <c r="K10" s="1">
-        <v>76073.7167</v>
+        <v>76381.96369999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.506399999999999</v>
+        <v>8.5237</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9704.450000000001</v>
+        <v>-9741.9817</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0173</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.3595</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>9953.593500000001</v>
+        <v>9973.428400000001</v>
       </c>
       <c r="F11" s="1">
-        <v>377.7175</v>
+        <v>378.5676</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>103114.2522</v>
+        <v>103113.282</v>
       </c>
       <c r="I11" s="1">
-        <v>6280.7135</v>
+        <v>5939.0648</v>
       </c>
       <c r="J11" s="1">
-        <v>109394.9657</v>
+        <v>109052.3468</v>
       </c>
       <c r="K11" s="1">
-        <v>85778.1667</v>
+        <v>86123.9454</v>
       </c>
       <c r="L11" s="1">
-        <v>8.617800000000001</v>
+        <v>8.635300000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3912.9645</v>
+        <v>-3929.6453</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0738</v>
+        <v>0.0737</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E12" s="1">
-        <v>10331.311</v>
+        <v>10351.996</v>
       </c>
       <c r="F12" s="1">
-        <v>1429.0483</v>
+        <v>1431.9604</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104217.1001</v>
+        <v>104216.6498</v>
       </c>
       <c r="I12" s="1">
-        <v>12367.749</v>
+        <v>12009.4196</v>
       </c>
       <c r="J12" s="1">
-        <v>116584.8491</v>
+        <v>116226.0693</v>
       </c>
       <c r="K12" s="1">
-        <v>89691.1312</v>
+        <v>90053.5906</v>
       </c>
       <c r="L12" s="1">
-        <v>8.6815</v>
+        <v>8.699199999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-14415.5249</v>
+        <v>-14473.8264</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0235</v>
+        <v>-0.0237</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E13" s="1">
-        <v>11760.3593</v>
+        <v>11783.9565</v>
       </c>
       <c r="F13" s="1">
-        <v>1063.8662</v>
+        <v>1065.9203</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119593.4463</v>
+        <v>119594.1958</v>
       </c>
       <c r="I13" s="1">
-        <v>7952.2241</v>
+        <v>7535.5932</v>
       </c>
       <c r="J13" s="1">
-        <v>127545.6704</v>
+        <v>127129.789</v>
       </c>
       <c r="K13" s="1">
-        <v>104106.656</v>
+        <v>104527.417</v>
       </c>
       <c r="L13" s="1">
-        <v>8.8523</v>
+        <v>8.8703</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2789.454</v>
+        <v>2795.0389</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8029.214</v>
+        <v>-8066.2626</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0076</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.0872</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E14" s="1">
-        <v>12824.2255</v>
+        <v>12849.8768</v>
       </c>
       <c r="F14" s="1">
-        <v>-12824.2255</v>
+        <v>-12849.8768</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>142184.7533</v>
+        <v>142183.8864</v>
       </c>
       <c r="I14" s="1">
-        <v>9923.0101</v>
+        <v>9469.3307</v>
       </c>
       <c r="J14" s="1">
-        <v>152107.7634</v>
+        <v>151653.2171</v>
       </c>
       <c r="K14" s="1">
-        <v>114925.3241</v>
+        <v>115388.7185</v>
       </c>
       <c r="L14" s="1">
-        <v>8.961600000000001</v>
+        <v>8.979799999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>142184.7533</v>
+        <v>142183.8864</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1059</v>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.0093</v>
+        <v>9.0273</v>
       </c>
       <c r="D3" s="1">
-        <v>8.907400000000001</v>
+        <v>8.9255</v>
       </c>
       <c r="E3" s="1">
-        <v>8.925599999999999</v>
+        <v>8.9438</v>
       </c>
       <c r="F3" s="1">
-        <v>8.9437</v>
+        <v>8.9618</v>
       </c>
       <c r="G3" s="1">
-        <v>8.961600000000001</v>
+        <v>8.979799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.4379</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4955</v>
+        <v>0.4831</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4633</v>
+        <v>0.4533</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4687</v>
+        <v>0.4586</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4742</v>
+        <v>0.464</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4798</v>
+        <v>0.4695</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1654</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1903</v>
+        <v>0.1895</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1751</v>
+        <v>0.1746</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1774</v>
+        <v>0.177</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1798</v>
+        <v>0.1794</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1822</v>
+        <v>0.1819</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>2.524</v>
       </c>
       <c r="C6" s="4">
-        <v>2.4974</v>
+        <v>2.4418</v>
       </c>
       <c r="D6" s="4">
-        <v>2.5295</v>
+        <v>2.4793</v>
       </c>
       <c r="E6" s="4">
-        <v>2.527</v>
+        <v>2.4763</v>
       </c>
       <c r="F6" s="4">
-        <v>2.5243</v>
+        <v>2.473</v>
       </c>
       <c r="G6" s="4">
-        <v>2.5215</v>
+        <v>2.4696</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5614</v>
+        <v>0.5505</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5752</v>
+        <v>0.5645</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5752</v>
+        <v>0.5644</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5752</v>
+        <v>0.5643</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5753</v>
+        <v>0.5642</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5353.3205</v>
+        <v>5342.5252</v>
       </c>
       <c r="D8" s="1">
-        <v>4619.4335</v>
+        <v>4628.69</v>
       </c>
       <c r="E8" s="1">
-        <v>4694.0129</v>
+        <v>4703.4188</v>
       </c>
       <c r="F8" s="1">
-        <v>4770.2989</v>
+        <v>4779.8575</v>
       </c>
       <c r="G8" s="1">
-        <v>4848.3341</v>
+        <v>4858.0491</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P1_KFSDIV.xlsx
+++ b/output/1Y_P1_KFSDIV.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paroon\PycharmProjects\DCA\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7975CCD1-62C0-44FC-AE39-58F365C47E00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KFSDIV" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="VA18" sheetId="6" r:id="rId6"/>
     <sheet name="Summary" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -115,17 +121,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="187" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="188" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +138,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,20 +178,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +300,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +352,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,19 +545,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,37 +565,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7.3047000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>0.066272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6.6271999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>0.058469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5.8469E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -532,76 +603,76 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>0.08455600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8.4556000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>0.004339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4.339E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.037015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-3.7014999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>0.106525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.10652499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.014578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-1.4578000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>0.018517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.8516999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0.078665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7.8664999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -609,10 +680,10 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.026256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-2.6256000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -620,18 +691,18 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>0.008099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>8.0990000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>0.09027300000000001</v>
+        <v>9.0273000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -640,726 +711,732 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="8.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>7.3047</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.3047</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7.3047</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1368.9816</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="B2" s="7">
+        <v>7.3047000000000004</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7.3047000000000004</v>
+      </c>
+      <c r="D2" s="7">
+        <v>7.3047000000000004</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1368.9816000000001</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="8">
         <v>-10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2">
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>7.7888</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.7888</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.7888</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1368.9816</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="7">
+        <v>7.7888000000000002</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7.7888000000000002</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7.7888000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1368.9816000000001</v>
+      </c>
+      <c r="F3" s="8">
         <v>1283.8948</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="9"/>
+      <c r="H3" s="8">
         <v>10662.724</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>10662.724</v>
       </c>
-      <c r="K3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7.3047</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="K3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="9">
+        <v>7.3047000000000004</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="8">
         <v>-10000</v>
       </c>
-      <c r="Q3" s="3">
-        <v>0.0663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2">
+      <c r="Q3" s="11">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.244199999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8.244199999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.244199999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2652.8764</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1212.974</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="B4" s="7">
+        <v>8.2441999999999993</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8.2441999999999993</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8.2441999999999993</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2652.8764000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1212.9739999999999</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8">
         <v>21870.8439</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>21870.8439</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="8">
         <v>20000</v>
       </c>
-      <c r="L4" s="1">
-        <v>7.539</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="L4" s="9">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="8">
         <v>-10000</v>
       </c>
-      <c r="Q4" s="3">
-        <v>0.0585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2">
+      <c r="Q4" s="11">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>8.9413</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>8.9413</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>8.9413</v>
       </c>
-      <c r="E5" s="1">
-        <v>3865.8504</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="8">
+        <v>3865.8503999999998</v>
+      </c>
+      <c r="F5" s="8">
         <v>1118.4056</v>
       </c>
-      <c r="H5" s="1">
-        <v>34565.7282</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>34565.7282</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="G5" s="9"/>
+      <c r="H5" s="8">
+        <v>34565.728199999998</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>34565.728199999998</v>
+      </c>
+      <c r="K5" s="8">
         <v>30000</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="9">
         <v>7.7603</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="8">
         <v>-10000</v>
       </c>
-      <c r="Q5" s="3">
-        <v>0.08459999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2">
+      <c r="Q5" s="11">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>8.9801</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.9801</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8.9801</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4984.256</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="7">
+        <v>8.9801000000000002</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8.9801000000000002</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.9801000000000002</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4984.2560000000003</v>
+      </c>
+      <c r="F6" s="8">
         <v>1113.5733</v>
       </c>
-      <c r="H6" s="1">
-        <v>44759.1174</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44759.1174</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="G6" s="9"/>
+      <c r="H6" s="8">
+        <v>44759.117400000003</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>44759.117400000003</v>
+      </c>
+      <c r="K6" s="8">
         <v>40000</v>
       </c>
-      <c r="L6" s="1">
-        <v>8.0253</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="L6" s="9">
+        <v>8.0252999999999997</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="8">
         <v>-10000</v>
       </c>
-      <c r="Q6" s="3">
-        <v>0.0043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2">
+      <c r="Q6" s="11">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>8.6477</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.6477</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8.6477</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6097.8294</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="7">
+        <v>8.6477000000000004</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.6477000000000004</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.6477000000000004</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6097.8293999999996</v>
+      </c>
+      <c r="F7" s="8">
         <v>1156.3768</v>
       </c>
-      <c r="H7" s="1">
-        <v>52732.1989</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>52732.1989</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="G7" s="9"/>
+      <c r="H7" s="8">
+        <v>52732.198900000003</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>52732.198900000003</v>
+      </c>
+      <c r="K7" s="8">
         <v>50000</v>
       </c>
-      <c r="L7" s="1">
-        <v>8.1996</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="L7" s="9">
+        <v>8.1996000000000002</v>
+      </c>
+      <c r="M7" s="10">
         <v>0.5</v>
       </c>
-      <c r="N7" s="1">
-        <v>2242.9152</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-7757.0848</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-0.037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2">
+      <c r="N7" s="8">
+        <v>2242.9151999999999</v>
+      </c>
+      <c r="O7" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="8">
+        <v>-7757.0847999999996</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>9.568899999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.568899999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.568899999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7254.2062</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1084.1183</v>
-      </c>
-      <c r="H8" s="1">
-        <v>69414.77370000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2242.9152</v>
-      </c>
-      <c r="J8" s="1">
-        <v>71657.68889999999</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="B8" s="7">
+        <v>9.5688999999999993</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.5688999999999993</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.5688999999999993</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7254.2061999999996</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1084.1183000000001</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8">
+        <v>69414.773700000005</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2242.9151999999999</v>
+      </c>
+      <c r="J8" s="8">
+        <v>71657.688899999994</v>
+      </c>
+      <c r="K8" s="8">
         <v>60000</v>
       </c>
-      <c r="L8" s="1">
-        <v>8.271100000000001</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="L8" s="9">
+        <v>8.2711000000000006</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="8">
         <v>-10373.8192</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0.1423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2">
+      <c r="Q8" s="11">
+        <v>0.14230000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>9.429399999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.429399999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9.429399999999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8338.324500000001</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="B9" s="7">
+        <v>9.4293999999999993</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9.4293999999999993</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9.4293999999999993</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8338.3245000000006</v>
+      </c>
+      <c r="F9" s="8">
         <v>1100.1569</v>
       </c>
-      <c r="H9" s="1">
-        <v>78625.39659999999</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="9"/>
+      <c r="H9" s="8">
+        <v>78625.396599999993</v>
+      </c>
+      <c r="I9" s="8">
         <v>1869.096</v>
       </c>
-      <c r="J9" s="1">
-        <v>80494.4926</v>
-      </c>
-      <c r="K9" s="1">
-        <v>70373.8192</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="J9" s="8">
+        <v>80494.492599999998</v>
+      </c>
+      <c r="K9" s="8">
+        <v>70373.819199999998</v>
+      </c>
+      <c r="L9" s="9">
         <v>8.4398</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="8">
         <v>-10373.8192</v>
       </c>
-      <c r="Q9" s="3">
-        <v>-0.0142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
+      <c r="Q9" s="11">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>9.603999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.603899999999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9.603999999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9438.481299999999</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1080.1561</v>
-      </c>
-      <c r="H10" s="1">
-        <v>90646.2308</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1495.2768</v>
-      </c>
-      <c r="J10" s="1">
-        <v>92141.5076</v>
-      </c>
-      <c r="K10" s="1">
-        <v>80747.6384</v>
-      </c>
-      <c r="L10" s="1">
-        <v>8.555199999999999</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="B10" s="7">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.6038999999999994</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9438.4812999999995</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1080.1560999999999</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8">
+        <v>90646.230800000005</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1495.2768000000001</v>
+      </c>
+      <c r="J10" s="8">
+        <v>92141.507599999997</v>
+      </c>
+      <c r="K10" s="8">
+        <v>80747.638399999996</v>
+      </c>
+      <c r="L10" s="9">
+        <v>8.5551999999999992</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="8">
         <v>-10373.8192</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0.0182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2">
+      <c r="Q10" s="11">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>10.3595</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10.3595</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10.3595</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="7">
+        <v>10.359500000000001</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10.359500000000001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10.359500000000001</v>
+      </c>
+      <c r="E11" s="8">
         <v>10518.6374</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <v>1001.3822</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="9"/>
+      <c r="H11" s="8">
         <v>108967.8244</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="8">
         <v>1121.4576</v>
       </c>
-      <c r="J11" s="1">
-        <v>110089.282</v>
-      </c>
-      <c r="K11" s="1">
-        <v>91121.45759999999</v>
-      </c>
-      <c r="L11" s="1">
-        <v>8.6629</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="J11" s="8">
+        <v>110089.28200000001</v>
+      </c>
+      <c r="K11" s="8">
+        <v>91121.457599999994</v>
+      </c>
+      <c r="L11" s="9">
+        <v>8.6629000000000005</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="8">
         <v>-10373.8192</v>
       </c>
-      <c r="Q11" s="3">
-        <v>0.07779999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2">
+      <c r="Q11" s="11">
+        <v>7.7799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>10.0875</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>10.0875</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>10.0875</v>
       </c>
-      <c r="E12" s="1">
-        <v>11520.0197</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1028.3836</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="E12" s="8">
+        <v>11520.019700000001</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1028.3835999999999</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8">
         <v>116208.1983</v>
       </c>
-      <c r="I12" s="1">
-        <v>747.6384</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="8">
+        <v>747.63840000000005</v>
+      </c>
+      <c r="J12" s="8">
         <v>116955.8367</v>
       </c>
-      <c r="K12" s="1">
-        <v>101495.2768</v>
-      </c>
-      <c r="L12" s="1">
-        <v>8.8103</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="K12" s="8">
+        <v>101495.27680000001</v>
+      </c>
+      <c r="L12" s="9">
+        <v>8.8102999999999998</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="8">
         <v>-10373.8192</v>
       </c>
-      <c r="Q12" s="3">
-        <v>-0.0261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2">
+      <c r="Q12" s="11">
+        <v>-2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>10.1692</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>10.1692</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>10.1692</v>
       </c>
-      <c r="E13" s="1">
-        <v>12548.4032</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="8">
+        <v>12548.403200000001</v>
+      </c>
+      <c r="F13" s="8">
         <v>1020.1215</v>
       </c>
-      <c r="H13" s="1">
-        <v>127607.222</v>
-      </c>
-      <c r="I13" s="1">
-        <v>373.8192</v>
-      </c>
-      <c r="J13" s="1">
-        <v>127981.0412</v>
-      </c>
-      <c r="K13" s="1">
-        <v>111869.096</v>
-      </c>
-      <c r="L13" s="1">
-        <v>8.914999999999999</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="G13" s="9"/>
+      <c r="H13" s="8">
+        <v>127607.22199999999</v>
+      </c>
+      <c r="I13" s="8">
+        <v>373.81920000000002</v>
+      </c>
+      <c r="J13" s="8">
+        <v>127981.04120000001</v>
+      </c>
+      <c r="K13" s="8">
+        <v>111869.09600000001</v>
+      </c>
+      <c r="L13" s="9">
+        <v>8.9149999999999991</v>
+      </c>
+      <c r="M13" s="10">
         <v>0.3</v>
       </c>
-      <c r="N13" s="1">
-        <v>3110.4053</v>
-      </c>
-      <c r="O13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-7263.4139</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.0081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2">
+      <c r="N13" s="8">
+        <v>3110.4052999999999</v>
+      </c>
+      <c r="O13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="8">
+        <v>-7263.4138999999996</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>11.0872</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11.0872</v>
-      </c>
-      <c r="D14" s="1">
-        <v>11.0872</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="7">
+        <v>11.087199999999999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11.087199999999999</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11.087199999999999</v>
+      </c>
+      <c r="E14" s="8">
         <v>13568.5247</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="8">
         <v>-13568.5247</v>
       </c>
-      <c r="H14" s="1">
-        <v>150436.9469</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3110.4053</v>
-      </c>
-      <c r="J14" s="1">
-        <v>153547.3522</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="G14" s="9"/>
+      <c r="H14" s="8">
+        <v>150436.94690000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3110.4052999999999</v>
+      </c>
+      <c r="J14" s="8">
+        <v>153547.35219999999</v>
+      </c>
+      <c r="K14" s="8">
         <v>122242.9152</v>
       </c>
-      <c r="L14" s="1">
-        <v>9.0093</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150436.9469</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="L14" s="9">
+        <v>9.0092999999999996</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>150436.94690000001</v>
+      </c>
+      <c r="Q14" s="11">
         <v>0.1128</v>
       </c>
     </row>
@@ -1369,33 +1446,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1448,24 +1525,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1495,21 +1572,21 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="F3" s="1">
         <v>1198.808</v>
@@ -1530,7 +1607,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,27 +1619,27 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9337.276</v>
+        <v>-9337.2759999999998</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="E4" s="1">
-        <v>2567.7896</v>
+        <v>2567.7896000000001</v>
       </c>
       <c r="F4" s="1">
         <v>1071.1323</v>
@@ -1574,16 +1651,16 @@
         <v>21169.3714</v>
       </c>
       <c r="I4" s="1">
-        <v>662.724</v>
+        <v>662.72400000000005</v>
       </c>
       <c r="J4" s="1">
-        <v>21832.0954</v>
+        <v>21832.095399999998</v>
       </c>
       <c r="K4" s="1">
-        <v>19337.276</v>
+        <v>19337.276000000002</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5307</v>
+        <v>7.5307000000000004</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,10 +1675,10 @@
         <v>-8830.6286</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1615,28 +1692,28 @@
         <v>8.9413</v>
       </c>
       <c r="E5" s="1">
-        <v>3638.9219</v>
+        <v>3638.9218999999998</v>
       </c>
       <c r="F5" s="1">
-        <v>834.7005</v>
+        <v>834.70050000000003</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32536.6925</v>
+        <v>32536.692500000001</v>
       </c>
       <c r="I5" s="1">
-        <v>1832.0954</v>
+        <v>1832.0953999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>34368.7879</v>
+        <v>34368.787900000003</v>
       </c>
       <c r="K5" s="1">
-        <v>28167.9046</v>
+        <v>28167.904600000002</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7407</v>
+        <v>7.7407000000000004</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,48 +1725,48 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7463.3075</v>
+        <v>-7463.3074999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07969999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.9699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>4473.6224</v>
+        <v>4473.6224000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>1094.2443</v>
+        <v>1094.2443000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40173.5765</v>
+        <v>40173.576500000003</v>
       </c>
       <c r="I6" s="1">
-        <v>4368.7879</v>
+        <v>4368.7879000000003</v>
       </c>
       <c r="J6" s="1">
-        <v>44542.3644</v>
+        <v>44542.364399999999</v>
       </c>
       <c r="K6" s="1">
-        <v>35631.2121</v>
+        <v>35631.212099999997</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9647</v>
+        <v>7.9646999999999997</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,80 +1778,80 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9826.423500000001</v>
+        <v>-9826.4235000000008</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="E7" s="1">
-        <v>5567.8667</v>
+        <v>5567.8666999999996</v>
       </c>
       <c r="F7" s="1">
-        <v>1370.3943</v>
+        <v>1370.3942999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48149.2411</v>
+        <v>48149.241099999999</v>
       </c>
       <c r="I7" s="1">
-        <v>4542.3644</v>
+        <v>4542.3644000000004</v>
       </c>
       <c r="J7" s="1">
-        <v>52691.6055</v>
+        <v>52691.605499999998</v>
       </c>
       <c r="K7" s="1">
-        <v>45457.6356</v>
+        <v>45457.635600000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.164300000000001</v>
+        <v>8.1643000000000008</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2013.1301</v>
+        <v>2013.1301000000001</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9837.6288</v>
+        <v>-9837.6288000000004</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.39E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="E8" s="1">
-        <v>6938.261</v>
+        <v>6938.2610000000004</v>
       </c>
       <c r="F8" s="1">
         <v>377.1044</v>
@@ -1783,19 +1860,19 @@
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>66391.5261</v>
+        <v>66391.526100000003</v>
       </c>
       <c r="I8" s="1">
         <v>4704.7356</v>
       </c>
       <c r="J8" s="1">
-        <v>71096.2617</v>
+        <v>71096.261700000003</v>
       </c>
       <c r="K8" s="1">
-        <v>57308.3945</v>
+        <v>57308.394500000002</v>
       </c>
       <c r="L8" s="1">
-        <v>8.2598</v>
+        <v>8.2598000000000003</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1813,21 +1890,21 @@
         <v>0.1341</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="E9" s="1">
-        <v>7315.3654</v>
+        <v>7315.3653999999997</v>
       </c>
       <c r="F9" s="1">
         <v>1168.7375</v>
@@ -1836,19 +1913,19 @@
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68979.5065</v>
+        <v>68979.506500000003</v>
       </c>
       <c r="I9" s="1">
-        <v>11096.2617</v>
+        <v>11096.261699999999</v>
       </c>
       <c r="J9" s="1">
-        <v>80075.76820000001</v>
+        <v>80075.768200000006</v>
       </c>
       <c r="K9" s="1">
-        <v>60916.8684</v>
+        <v>60916.868399999999</v>
       </c>
       <c r="L9" s="1">
-        <v>8.327199999999999</v>
+        <v>8.3271999999999995</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,24 +1940,24 @@
         <v>-11020.4935</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.26E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.6038999999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="E10" s="1">
-        <v>8484.1029</v>
+        <v>8484.1028999999999</v>
       </c>
       <c r="F10" s="1">
         <v>887.09</v>
@@ -1889,19 +1966,19 @@
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81480.476</v>
+        <v>81480.475999999995</v>
       </c>
       <c r="I10" s="1">
         <v>10075.7682</v>
       </c>
       <c r="J10" s="1">
-        <v>91556.2442</v>
+        <v>91556.244200000001</v>
       </c>
       <c r="K10" s="1">
-        <v>71937.3619</v>
+        <v>71937.361900000004</v>
       </c>
       <c r="L10" s="1">
-        <v>8.479100000000001</v>
+        <v>8.4791000000000007</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,27 +1990,27 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8519.612800000001</v>
+        <v>-8519.6128000000008</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>9371.192999999999</v>
+        <v>9371.1929999999993</v>
       </c>
       <c r="F11" s="1">
         <v>281.7826</v>
@@ -1942,7 +2019,7 @@
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>97080.8734</v>
+        <v>97080.873399999997</v>
       </c>
       <c r="I11" s="1">
         <v>11556.1554</v>
@@ -1951,10 +2028,10 @@
         <v>108637.0288</v>
       </c>
       <c r="K11" s="1">
-        <v>80456.9746</v>
+        <v>80456.974600000001</v>
       </c>
       <c r="L11" s="1">
-        <v>8.585599999999999</v>
+        <v>8.5855999999999995</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,13 +2043,13 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2919.1266</v>
+        <v>-2919.1266000000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1986,16 +2063,16 @@
         <v>10.0875</v>
       </c>
       <c r="E12" s="1">
-        <v>9652.9755</v>
+        <v>9652.9755000000005</v>
       </c>
       <c r="F12" s="1">
-        <v>1251.6094</v>
+        <v>1251.6094000000001</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97374.3907</v>
+        <v>97374.390700000004</v>
       </c>
       <c r="I12" s="1">
         <v>18637.0288</v>
@@ -2004,10 +2081,10 @@
         <v>116011.4195</v>
       </c>
       <c r="K12" s="1">
-        <v>83376.1012</v>
+        <v>83376.101200000005</v>
       </c>
       <c r="L12" s="1">
-        <v>8.6373</v>
+        <v>8.6372999999999998</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,10 +2099,10 @@
         <v>-12625.6093</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2042,13 +2119,13 @@
         <v>10904.5849</v>
       </c>
       <c r="F13" s="1">
-        <v>895.7534000000001</v>
+        <v>895.75340000000006</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110890.9046</v>
+        <v>110890.90459999999</v>
       </c>
       <c r="I13" s="1">
         <v>16011.4195</v>
@@ -2057,45 +2134,45 @@
         <v>126902.3241</v>
       </c>
       <c r="K13" s="1">
-        <v>96001.71060000001</v>
+        <v>96001.710600000006</v>
       </c>
       <c r="L13" s="1">
-        <v>8.803800000000001</v>
+        <v>8.8038000000000007</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2606.3034</v>
+        <v>2606.3033999999998</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6502.792</v>
+        <v>-6502.7920000000004</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11800.3383</v>
+        <v>11800.338299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-11800.3383</v>
+        <v>-11800.338299999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2104,16 +2181,16 @@
         <v>130832.7105</v>
       </c>
       <c r="I14" s="1">
-        <v>19508.6275</v>
+        <v>19508.627499999999</v>
       </c>
       <c r="J14" s="1">
-        <v>150341.338</v>
+        <v>150341.33799999999</v>
       </c>
       <c r="K14" s="1">
         <v>105110.806</v>
       </c>
       <c r="L14" s="1">
-        <v>8.907400000000001</v>
+        <v>8.9074000000000009</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2128,7 +2205,7 @@
         <v>130832.7105</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0982</v>
+        <v>9.8199999999999996E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2137,33 +2214,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2216,24 +2292,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2263,21 +2339,21 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="F3" s="1">
         <v>1205.2275</v>
@@ -2298,7 +2374,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,30 +2386,30 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9387.276</v>
+        <v>-9387.2759999999998</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="E4" s="1">
         <v>2574.2091</v>
       </c>
       <c r="F4" s="1">
-        <v>1082.9377</v>
+        <v>1082.9376999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
@@ -2342,16 +2418,16 @@
         <v>21222.2948</v>
       </c>
       <c r="I4" s="1">
-        <v>612.724</v>
+        <v>612.72400000000005</v>
       </c>
       <c r="J4" s="1">
-        <v>21835.0188</v>
+        <v>21835.018800000002</v>
       </c>
       <c r="K4" s="1">
-        <v>19387.276</v>
+        <v>19387.276000000002</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5314</v>
+        <v>7.5313999999999997</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,13 +2439,13 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8927.9552</v>
+        <v>-8927.9552000000003</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.67E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2386,25 +2462,25 @@
         <v>3657.1468</v>
       </c>
       <c r="F5" s="1">
-        <v>850.1396999999999</v>
+        <v>850.13969999999995</v>
       </c>
       <c r="G5" s="1">
-        <v>40301.0012</v>
+        <v>40301.001199999999</v>
       </c>
       <c r="H5" s="1">
-        <v>32699.6471</v>
+        <v>32699.647099999998</v>
       </c>
       <c r="I5" s="1">
-        <v>1684.7688</v>
+        <v>1684.7688000000001</v>
       </c>
       <c r="J5" s="1">
         <v>34384.4159</v>
       </c>
       <c r="K5" s="1">
-        <v>28315.2312</v>
+        <v>28315.231199999998</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7424</v>
+        <v>7.7423999999999999</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,48 +2492,48 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7601.3542</v>
+        <v>-7601.3541999999998</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.0100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>4507.2866</v>
+        <v>4507.2866000000004</v>
       </c>
       <c r="F6" s="1">
         <v>1116.5379</v>
       </c>
       <c r="G6" s="1">
-        <v>50502.5063</v>
+        <v>50502.506300000001</v>
       </c>
       <c r="H6" s="1">
-        <v>40475.884</v>
+        <v>40475.883999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>4083.4146</v>
+        <v>4083.4146000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>44559.2986</v>
+        <v>44559.298600000002</v>
       </c>
       <c r="K6" s="1">
-        <v>35916.5854</v>
+        <v>35916.585400000004</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9686</v>
+        <v>7.9686000000000003</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,48 +2545,48 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10026.6223</v>
+        <v>-10026.622300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="E7" s="1">
-        <v>5623.8245</v>
+        <v>5623.8244999999997</v>
       </c>
       <c r="F7" s="1">
-        <v>1401.7452</v>
+        <v>1401.7452000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>60755.0188</v>
+        <v>60755.018799999998</v>
       </c>
       <c r="H7" s="1">
-        <v>48633.147</v>
+        <v>48633.146999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>4056.7924</v>
+        <v>4056.7923999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>52689.9394</v>
+        <v>52689.939400000003</v>
       </c>
       <c r="K7" s="1">
-        <v>45943.2076</v>
+        <v>45943.207600000002</v>
       </c>
       <c r="L7" s="1">
-        <v>8.1694</v>
+        <v>8.1693999999999996</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
@@ -2525,21 +2601,21 @@
         <v>-10093.5928</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="E8" s="1">
         <v>7025.5697</v>
@@ -2548,22 +2624,22 @@
         <v>400.4452</v>
       </c>
       <c r="G8" s="1">
-        <v>71058.7939</v>
+        <v>71058.793900000004</v>
       </c>
       <c r="H8" s="1">
-        <v>67226.9736</v>
+        <v>67226.973599999998</v>
       </c>
       <c r="I8" s="1">
-        <v>3963.1995</v>
+        <v>3963.1995000000002</v>
       </c>
       <c r="J8" s="1">
         <v>71190.1731</v>
       </c>
       <c r="K8" s="1">
-        <v>58065.0794</v>
+        <v>58065.079400000002</v>
       </c>
       <c r="L8" s="1">
-        <v>8.264799999999999</v>
+        <v>8.2647999999999993</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,48 +2651,48 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3831.8203</v>
+        <v>-3831.8202999999999</v>
       </c>
       <c r="Q8" s="3">
         <v>0.1356</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="E9" s="1">
-        <v>7426.0149</v>
+        <v>7426.0149000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>1208.0539</v>
+        <v>1208.0539000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>81414.0879</v>
+        <v>81414.087899999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70022.8648</v>
+        <v>70022.864799999996</v>
       </c>
       <c r="I9" s="1">
-        <v>10131.3792</v>
+        <v>10131.379199999999</v>
       </c>
       <c r="J9" s="1">
-        <v>80154.24400000001</v>
+        <v>80154.244000000006</v>
       </c>
       <c r="K9" s="1">
-        <v>61896.8997</v>
+        <v>61896.899700000002</v>
       </c>
       <c r="L9" s="1">
-        <v>8.335100000000001</v>
+        <v>8.3351000000000006</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,45 +2707,45 @@
         <v>-11391.223</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.6038999999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="E10" s="1">
-        <v>8634.0687</v>
+        <v>8634.0686999999998</v>
       </c>
       <c r="F10" s="1">
-        <v>926.7512</v>
+        <v>926.75120000000004</v>
       </c>
       <c r="G10" s="1">
-        <v>91821.1583</v>
+        <v>91821.158299999996</v>
       </c>
       <c r="H10" s="1">
-        <v>82920.7328</v>
+        <v>82920.732799999998</v>
       </c>
       <c r="I10" s="1">
-        <v>8740.156199999999</v>
+        <v>8740.1561999999994</v>
       </c>
       <c r="J10" s="1">
-        <v>91660.889</v>
+        <v>91660.888999999996</v>
       </c>
       <c r="K10" s="1">
-        <v>73288.1228</v>
+        <v>73288.122799999997</v>
       </c>
       <c r="L10" s="1">
-        <v>8.488200000000001</v>
+        <v>8.4882000000000009</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,48 +2757,48 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8900.518099999999</v>
+        <v>-8900.5180999999993</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>9560.8199</v>
+        <v>9560.8199000000004</v>
       </c>
       <c r="F11" s="1">
-        <v>312.269</v>
+        <v>312.26900000000001</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99045.3138</v>
+        <v>99045.313800000004</v>
       </c>
       <c r="I11" s="1">
-        <v>9839.638000000001</v>
+        <v>9839.6380000000008</v>
       </c>
       <c r="J11" s="1">
         <v>108884.9518</v>
       </c>
       <c r="K11" s="1">
-        <v>82188.6409</v>
+        <v>82188.640899999999</v>
       </c>
       <c r="L11" s="1">
-        <v>8.596399999999999</v>
+        <v>8.5963999999999992</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,10 +2813,10 @@
         <v>-3234.9503</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0711</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.1099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2754,7 +2830,7 @@
         <v>10.0875</v>
       </c>
       <c r="E12" s="1">
-        <v>9873.088900000001</v>
+        <v>9873.0889000000006</v>
       </c>
       <c r="F12" s="1">
         <v>1308.241</v>
@@ -2763,19 +2839,19 @@
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99594.78389999999</v>
+        <v>99594.783899999995</v>
       </c>
       <c r="I12" s="1">
         <v>16604.6878</v>
       </c>
       <c r="J12" s="1">
-        <v>116199.4717</v>
+        <v>116199.47169999999</v>
       </c>
       <c r="K12" s="1">
-        <v>85423.5912</v>
+        <v>85423.591199999995</v>
       </c>
       <c r="L12" s="1">
-        <v>8.652200000000001</v>
+        <v>8.6522000000000006</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,10 +2866,10 @@
         <v>-13196.8815</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2807,10 +2883,10 @@
         <v>10.1692</v>
       </c>
       <c r="E13" s="1">
-        <v>11181.3299</v>
+        <v>11181.329900000001</v>
       </c>
       <c r="F13" s="1">
-        <v>948.9875</v>
+        <v>948.98749999999995</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
@@ -2825,39 +2901,39 @@
         <v>127112.9863</v>
       </c>
       <c r="K13" s="1">
-        <v>98620.4727</v>
+        <v>98620.472699999998</v>
       </c>
       <c r="L13" s="1">
-        <v>8.8201</v>
+        <v>8.8201000000000001</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2665.734</v>
+        <v>2665.7339999999999</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6984.7097</v>
+        <v>-6984.7097000000003</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="E14" s="1">
         <v>12130.3174</v>
@@ -2869,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134491.2551</v>
+        <v>134491.25510000001</v>
       </c>
       <c r="I14" s="1">
-        <v>16423.0966</v>
+        <v>16423.096600000001</v>
       </c>
       <c r="J14" s="1">
         <v>150914.3517</v>
@@ -2881,7 +2957,7 @@
         <v>108270.9164</v>
       </c>
       <c r="L14" s="1">
-        <v>8.925599999999999</v>
+        <v>8.9255999999999993</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134491.2551</v>
+        <v>134491.25510000001</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1007</v>
@@ -2905,33 +2981,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2984,24 +3059,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3031,24 +3106,24 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>1211.647</v>
+        <v>1211.6469999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
@@ -3066,7 +3141,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,30 +3153,30 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9437.276</v>
+        <v>-9437.2759999999998</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="E4" s="1">
         <v>2580.6286</v>
       </c>
       <c r="F4" s="1">
-        <v>1094.8038</v>
+        <v>1094.8037999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
@@ -3110,13 +3185,13 @@
         <v>21275.2183</v>
       </c>
       <c r="I4" s="1">
-        <v>562.724</v>
+        <v>562.72400000000005</v>
       </c>
       <c r="J4" s="1">
-        <v>21837.9423</v>
+        <v>21837.942299999999</v>
       </c>
       <c r="K4" s="1">
-        <v>19437.276</v>
+        <v>19437.276000000002</v>
       </c>
       <c r="L4" s="1">
         <v>7.532</v>
@@ -3131,13 +3206,13 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9025.7817</v>
+        <v>-9025.7816999999995</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3151,28 +3226,28 @@
         <v>8.9413</v>
       </c>
       <c r="E5" s="1">
-        <v>3675.4324</v>
+        <v>3675.4324000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>865.7428</v>
+        <v>865.74279999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32863.1439</v>
+        <v>32863.143900000003</v>
       </c>
       <c r="I5" s="1">
-        <v>1536.9423</v>
+        <v>1536.9422999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>34400.0862</v>
+        <v>34400.086199999998</v>
       </c>
       <c r="K5" s="1">
-        <v>28463.0577</v>
+        <v>28463.057700000001</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7441</v>
+        <v>7.7441000000000004</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,48 +3259,48 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7740.8661</v>
+        <v>-7740.8661000000002</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>4541.1752</v>
+        <v>4541.1751999999997</v>
       </c>
       <c r="F6" s="1">
-        <v>1139.168</v>
+        <v>1139.1679999999999</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40780.2076</v>
+        <v>40780.207600000002</v>
       </c>
       <c r="I6" s="1">
         <v>3796.0762</v>
       </c>
       <c r="J6" s="1">
-        <v>44576.2838</v>
+        <v>44576.283799999997</v>
       </c>
       <c r="K6" s="1">
-        <v>36203.9238</v>
+        <v>36203.923799999997</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9724</v>
+        <v>7.9724000000000004</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,48 +3312,48 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10229.8425</v>
+        <v>-10229.842500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="E7" s="1">
-        <v>5680.3432</v>
+        <v>5680.3432000000003</v>
       </c>
       <c r="F7" s="1">
-        <v>1433.7045</v>
+        <v>1433.7045000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>61520.1506</v>
+        <v>61520.150600000001</v>
       </c>
       <c r="H7" s="1">
-        <v>49121.904</v>
+        <v>49121.904000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>3566.2337</v>
+        <v>3566.2337000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>52688.1377</v>
+        <v>52688.137699999999</v>
       </c>
       <c r="K7" s="1">
-        <v>46433.7663</v>
+        <v>46433.766300000003</v>
       </c>
       <c r="L7" s="1">
-        <v>8.1745</v>
+        <v>8.1745000000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
@@ -3290,45 +3365,45 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10354.7177</v>
+        <v>-10354.717699999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="E8" s="1">
-        <v>7114.0477</v>
+        <v>7114.0477000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>424.4731</v>
+        <v>424.47309999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>72135.3521</v>
+        <v>72135.352100000004</v>
       </c>
       <c r="H8" s="1">
-        <v>68073.61139999999</v>
+        <v>68073.611399999994</v>
       </c>
       <c r="I8" s="1">
-        <v>3211.516</v>
+        <v>3211.5160000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>71285.12729999999</v>
+        <v>71285.127299999993</v>
       </c>
       <c r="K8" s="1">
-        <v>58832.0129</v>
+        <v>58832.012900000002</v>
       </c>
       <c r="L8" s="1">
         <v>8.2698</v>
@@ -3343,45 +3418,45 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4061.7407</v>
+        <v>-4061.7406999999998</v>
       </c>
       <c r="Q8" s="3">
         <v>0.1371</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="E9" s="1">
-        <v>7538.5208</v>
+        <v>7538.5208000000002</v>
       </c>
       <c r="F9" s="1">
-        <v>1248.5394</v>
+        <v>1248.5393999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>82856.7056</v>
+        <v>82856.705600000001</v>
       </c>
       <c r="H9" s="1">
-        <v>71083.72840000001</v>
+        <v>71083.728400000007</v>
       </c>
       <c r="I9" s="1">
         <v>9149.7752</v>
       </c>
       <c r="J9" s="1">
-        <v>80233.5037</v>
+        <v>80233.503700000001</v>
       </c>
       <c r="K9" s="1">
-        <v>62893.7536</v>
+        <v>62893.753599999996</v>
       </c>
       <c r="L9" s="1">
         <v>8.343</v>
@@ -3396,48 +3471,48 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11772.9772</v>
+        <v>-11772.977199999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.29E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.6038999999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="E10" s="1">
-        <v>8787.0602</v>
+        <v>8787.0601999999999</v>
       </c>
       <c r="F10" s="1">
-        <v>967.8594000000001</v>
+        <v>967.85940000000005</v>
       </c>
       <c r="G10" s="1">
-        <v>93685.2727</v>
+        <v>93685.272700000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84390.04760000001</v>
+        <v>84390.047600000005</v>
       </c>
       <c r="I10" s="1">
         <v>7376.7981</v>
       </c>
       <c r="J10" s="1">
-        <v>91766.84570000001</v>
+        <v>91766.845700000005</v>
       </c>
       <c r="K10" s="1">
-        <v>74666.7308</v>
+        <v>74666.730800000005</v>
       </c>
       <c r="L10" s="1">
-        <v>8.497400000000001</v>
+        <v>8.4974000000000007</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,27 +3524,27 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9295.3218</v>
+        <v>-9295.3217999999997</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>9754.919599999999</v>
+        <v>9754.9195999999993</v>
       </c>
       <c r="F11" s="1">
         <v>344.2285</v>
@@ -3481,16 +3556,16 @@
         <v>101056.09</v>
       </c>
       <c r="I11" s="1">
-        <v>8081.4762</v>
+        <v>8081.4762000000001</v>
       </c>
       <c r="J11" s="1">
         <v>109137.5662</v>
       </c>
       <c r="K11" s="1">
-        <v>83962.0526</v>
+        <v>83962.052599999995</v>
       </c>
       <c r="L11" s="1">
-        <v>8.607100000000001</v>
+        <v>8.6071000000000009</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,10 +3580,10 @@
         <v>-3566.0355</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07240000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3525,10 +3600,10 @@
         <v>10099.1482</v>
       </c>
       <c r="F12" s="1">
-        <v>1367.3546</v>
+        <v>1367.3545999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>115668.3467</v>
+        <v>115668.34669999999</v>
       </c>
       <c r="H12" s="1">
         <v>101875.1571</v>
@@ -3537,10 +3612,10 @@
         <v>14515.4408</v>
       </c>
       <c r="J12" s="1">
-        <v>116390.5979</v>
+        <v>116390.59789999999</v>
       </c>
       <c r="K12" s="1">
-        <v>87528.08809999999</v>
+        <v>87528.088099999994</v>
       </c>
       <c r="L12" s="1">
         <v>8.6669</v>
@@ -3558,10 +3633,10 @@
         <v>-13793.1896</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3587,7 +3662,7 @@
         <v>116605.1599</v>
       </c>
       <c r="I13" s="1">
-        <v>10722.2512</v>
+        <v>10722.251200000001</v>
       </c>
       <c r="J13" s="1">
         <v>127327.4112</v>
@@ -3596,7 +3671,7 @@
         <v>101321.2776</v>
       </c>
       <c r="L13" s="1">
-        <v>8.8363</v>
+        <v>8.8362999999999996</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
@@ -3608,36 +3683,36 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7493.1002</v>
+        <v>-7493.1001999999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>12471.4855</v>
+        <v>12471.485500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-12471.4855</v>
+        <v>-12471.485500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>138273.8538</v>
+        <v>138273.85380000001</v>
       </c>
       <c r="I14" s="1">
         <v>13229.151</v>
@@ -3646,10 +3721,10 @@
         <v>151503.0048</v>
       </c>
       <c r="K14" s="1">
-        <v>111541.1478</v>
+        <v>111541.14780000001</v>
       </c>
       <c r="L14" s="1">
-        <v>8.9437</v>
+        <v>8.9436999999999998</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>138273.8538</v>
+        <v>138273.85380000001</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1032</v>
@@ -3673,33 +3748,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -3752,24 +3826,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3799,24 +3873,24 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1368.9816</v>
+        <v>1368.9816000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>1218.0665</v>
+        <v>1218.0664999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
@@ -3834,7 +3908,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,30 +3920,30 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9487.276</v>
+        <v>-9487.2759999999998</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="D4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="E4" s="1">
         <v>2587.0481</v>
       </c>
       <c r="F4" s="1">
-        <v>1106.7306</v>
+        <v>1106.7306000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
@@ -3878,16 +3952,16 @@
         <v>21328.1417</v>
       </c>
       <c r="I4" s="1">
-        <v>512.724</v>
+        <v>512.72400000000005</v>
       </c>
       <c r="J4" s="1">
-        <v>21840.8657</v>
+        <v>21840.865699999998</v>
       </c>
       <c r="K4" s="1">
-        <v>19487.276</v>
+        <v>19487.276000000002</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5326</v>
+        <v>7.5326000000000004</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,13 +3973,13 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9124.1083</v>
+        <v>-9124.1082999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3919,25 +3993,25 @@
         <v>8.9413</v>
       </c>
       <c r="E5" s="1">
-        <v>3693.7787</v>
+        <v>3693.7786999999998</v>
       </c>
       <c r="F5" s="1">
-        <v>881.5106</v>
+        <v>881.51059999999995</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>33027.1831</v>
+        <v>33027.183100000002</v>
       </c>
       <c r="I5" s="1">
-        <v>1388.6157</v>
+        <v>1388.6157000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>34415.7988</v>
+        <v>34415.798799999997</v>
       </c>
       <c r="K5" s="1">
-        <v>28611.3843</v>
+        <v>28611.384300000002</v>
       </c>
       <c r="L5" s="1">
         <v>7.7458</v>
@@ -3952,48 +4026,48 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7881.8506</v>
+        <v>-7881.8505999999998</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>4575.2892</v>
+        <v>4575.2892000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>1162.1379</v>
+        <v>1162.1378999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>51522.6693</v>
+        <v>51522.669300000001</v>
       </c>
       <c r="H6" s="1">
         <v>41086.555</v>
       </c>
       <c r="I6" s="1">
-        <v>3506.765</v>
+        <v>3506.7649999999999</v>
       </c>
       <c r="J6" s="1">
         <v>44593.32</v>
       </c>
       <c r="K6" s="1">
-        <v>36493.235</v>
+        <v>36493.235000000001</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9762</v>
+        <v>7.9762000000000004</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,54 +4079,54 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10436.1143</v>
+        <v>-10436.114299999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="E7" s="1">
-        <v>5737.4271</v>
+        <v>5737.4270999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>1466.2813</v>
+        <v>1466.2813000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>62295.5093</v>
+        <v>62295.509299999998</v>
       </c>
       <c r="H7" s="1">
-        <v>49615.5485</v>
+        <v>49615.548499999997</v>
       </c>
       <c r="I7" s="1">
-        <v>3070.6508</v>
+        <v>3070.6507999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>52686.1992</v>
+        <v>52686.199200000003</v>
       </c>
       <c r="K7" s="1">
-        <v>46929.3492</v>
+        <v>46929.349199999997</v>
       </c>
       <c r="L7" s="1">
-        <v>8.179500000000001</v>
+        <v>8.1795000000000009</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2058.8802</v>
+        <v>2058.8802000000001</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
@@ -4061,45 +4135,45 @@
         <v>-10621.0807</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.49E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="E8" s="1">
-        <v>7203.7084</v>
+        <v>7203.7084000000004</v>
       </c>
       <c r="F8" s="1">
-        <v>449.2028</v>
+        <v>449.20280000000002</v>
       </c>
       <c r="G8" s="1">
-        <v>73229.94190000001</v>
+        <v>73229.941900000005</v>
       </c>
       <c r="H8" s="1">
-        <v>68931.5655</v>
+        <v>68931.565499999997</v>
       </c>
       <c r="I8" s="1">
-        <v>2449.5701</v>
+        <v>2449.5700999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>71381.13559999999</v>
+        <v>71381.135599999994</v>
       </c>
       <c r="K8" s="1">
-        <v>59609.3101</v>
+        <v>59609.310100000002</v>
       </c>
       <c r="L8" s="1">
-        <v>8.274800000000001</v>
+        <v>8.2748000000000008</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,48 +4185,48 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4298.3764</v>
+        <v>-4298.3764000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.13869999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="E9" s="1">
-        <v>7652.9112</v>
+        <v>7652.9111999999996</v>
       </c>
       <c r="F9" s="1">
-        <v>1290.2232</v>
+        <v>1290.2231999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>84328.39109999999</v>
+        <v>84328.391099999993</v>
       </c>
       <c r="H9" s="1">
-        <v>72162.36079999999</v>
+        <v>72162.360799999995</v>
       </c>
       <c r="I9" s="1">
-        <v>8151.1937</v>
+        <v>8151.1936999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>80313.5545</v>
+        <v>80313.554499999998</v>
       </c>
       <c r="K9" s="1">
-        <v>63907.6865</v>
+        <v>63907.686500000003</v>
       </c>
       <c r="L9" s="1">
-        <v>8.3508</v>
+        <v>8.3507999999999996</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,48 +4238,48 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12166.0302</v>
+        <v>-12166.030199999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>9.603899999999999</v>
+        <v>9.6038999999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="E10" s="1">
-        <v>8943.134400000001</v>
+        <v>8943.1344000000008</v>
       </c>
       <c r="F10" s="1">
         <v>1010.4592</v>
       </c>
       <c r="G10" s="1">
-        <v>95593.31690000001</v>
+        <v>95593.316900000005</v>
       </c>
       <c r="H10" s="1">
-        <v>85888.96799999999</v>
+        <v>85888.967999999993</v>
       </c>
       <c r="I10" s="1">
-        <v>5985.1634</v>
+        <v>5985.1634000000004</v>
       </c>
       <c r="J10" s="1">
-        <v>91874.1314</v>
+        <v>91874.131399999998</v>
       </c>
       <c r="K10" s="1">
-        <v>76073.7167</v>
+        <v>76073.716700000004</v>
       </c>
       <c r="L10" s="1">
-        <v>8.506399999999999</v>
+        <v>8.5063999999999993</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,30 +4291,30 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9704.450000000001</v>
+        <v>-9704.4500000000007</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>9953.593500000001</v>
+        <v>9953.5935000000009</v>
       </c>
       <c r="F11" s="1">
-        <v>377.7175</v>
+        <v>377.71749999999997</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
@@ -4249,16 +4323,16 @@
         <v>103114.2522</v>
       </c>
       <c r="I11" s="1">
-        <v>6280.7135</v>
+        <v>6280.7134999999998</v>
       </c>
       <c r="J11" s="1">
         <v>109394.9657</v>
       </c>
       <c r="K11" s="1">
-        <v>85778.1667</v>
+        <v>85778.166700000002</v>
       </c>
       <c r="L11" s="1">
-        <v>8.617800000000001</v>
+        <v>8.6178000000000008</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,10 +4347,10 @@
         <v>-3912.9645</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.3800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4293,7 +4367,7 @@
         <v>10331.311</v>
       </c>
       <c r="F12" s="1">
-        <v>1429.0483</v>
+        <v>1429.0482999999999</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
@@ -4305,13 +4379,13 @@
         <v>12367.749</v>
       </c>
       <c r="J12" s="1">
-        <v>116584.8491</v>
+        <v>116584.84910000001</v>
       </c>
       <c r="K12" s="1">
-        <v>89691.1312</v>
+        <v>89691.131200000003</v>
       </c>
       <c r="L12" s="1">
-        <v>8.6815</v>
+        <v>8.6814999999999998</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,10 +4400,10 @@
         <v>-14415.5249</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.35E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4346,7 +4420,7 @@
         <v>11760.3593</v>
       </c>
       <c r="F13" s="1">
-        <v>1063.8662</v>
+        <v>1063.8661999999999</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
@@ -4355,7 +4429,7 @@
         <v>119593.4463</v>
       </c>
       <c r="I13" s="1">
-        <v>7952.2241</v>
+        <v>7952.2241000000004</v>
       </c>
       <c r="J13" s="1">
         <v>127545.6704</v>
@@ -4364,36 +4438,36 @@
         <v>104106.656</v>
       </c>
       <c r="L13" s="1">
-        <v>8.8523</v>
+        <v>8.8522999999999996</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2789.454</v>
+        <v>2789.4540000000002</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8029.214</v>
+        <v>-8029.2139999999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="E14" s="1">
         <v>12824.2255</v>
@@ -4405,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>142184.7533</v>
+        <v>142184.75330000001</v>
       </c>
       <c r="I14" s="1">
-        <v>9923.0101</v>
+        <v>9923.0100999999995</v>
       </c>
       <c r="J14" s="1">
         <v>152107.7634</v>
@@ -4417,7 +4491,7 @@
         <v>114925.3241</v>
       </c>
       <c r="L14" s="1">
-        <v>8.961600000000001</v>
+        <v>8.9616000000000007</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>142184.7533</v>
+        <v>142184.75330000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1059</v>
+        <v>0.10589999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4441,23 +4515,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4477,81 +4547,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>11.0872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+        <v>11.087199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.0093</v>
+        <v>9.0092999999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>8.907400000000001</v>
+        <v>8.9074000000000009</v>
       </c>
       <c r="E3" s="1">
-        <v>8.925599999999999</v>
+        <v>8.9255999999999993</v>
       </c>
       <c r="F3" s="1">
-        <v>8.9437</v>
+        <v>8.9436999999999998</v>
       </c>
       <c r="G3" s="1">
-        <v>8.961600000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+        <v>8.9616000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3">
-        <v>0.4379</v>
+        <v>0.43790000000000001</v>
       </c>
       <c r="C4" s="3">
         <v>0.4955</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4633</v>
+        <v>0.46329999999999999</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4687</v>
+        <v>0.46870000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4742</v>
+        <v>0.47420000000000001</v>
       </c>
       <c r="G4" s="3">
         <v>0.4798</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3">
-        <v>0.1654</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="C5" s="3">
         <v>0.1903</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1751</v>
+        <v>0.17510000000000001</v>
       </c>
       <c r="E5" s="3">
         <v>0.1774</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1798</v>
+        <v>0.17979999999999999</v>
       </c>
       <c r="G5" s="3">
         <v>0.1822</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -4559,56 +4629,56 @@
         <v>2.524</v>
       </c>
       <c r="C6" s="4">
-        <v>2.4974</v>
+        <v>2.4973999999999998</v>
       </c>
       <c r="D6" s="4">
-        <v>2.5295</v>
+        <v>2.5295000000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>2.527</v>
+        <v>2.5270000000000001</v>
       </c>
       <c r="F6" s="4">
-        <v>2.5243</v>
+        <v>2.5243000000000002</v>
       </c>
       <c r="G6" s="4">
-        <v>2.5215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+        <v>2.5215000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5614</v>
+        <v>0.56140000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5752</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5752</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5752</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+        <v>0.57530000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5353.3205</v>
+        <v>5353.3204999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>4619.4335</v>
+        <v>4619.4335000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>4694.0129</v>
+        <v>4694.0128999999997</v>
       </c>
       <c r="F8" s="1">
-        <v>4770.2989</v>
+        <v>4770.2988999999998</v>
       </c>
       <c r="G8" s="1">
         <v>4848.3341</v>

--- a/output/1Y_P1_KFSDIV.xlsx
+++ b/output/1Y_P1_KFSDIV.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paroon\PycharmProjects\DCA\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7D58D-9AA4-4956-8168-D17544BE3ACF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KFSDIV" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="VA18" sheetId="6" r:id="rId6"/>
     <sheet name="Summary" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -115,17 +121,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +137,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,20 +177,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +330,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,19 +523,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,37 +543,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7.3047000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>0.066272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6.6271999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>0.058469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5.8469E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -532,76 +581,76 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>0.08455600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8.4556000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>0.004339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4.339E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.037015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-3.7014999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>0.106525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.10652499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.014578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-1.4578000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>0.018517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.8516999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0.078665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7.8664999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -609,10 +658,10 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.026256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-2.6256000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -620,18 +669,18 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>0.008099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>8.0990000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>0.09027300000000001</v>
+        <v>9.0273000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -640,33 +689,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B2:Q14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -719,645 +769,646 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>7.3047</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.2901</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7.3194</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1366.2322</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="B2" s="4">
+        <v>7.3047000000000004</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.2900999999999998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.3193999999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1366.2321999999999</v>
+      </c>
+      <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="5">
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>7.7888</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.7732</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.8044</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1366.2322</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1281.3285</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="B3" s="4">
+        <v>7.7888000000000002</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.7732000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.8044000000000002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1366.2321999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1281.3285000000001</v>
+      </c>
+      <c r="H3" s="5">
         <v>10619.9962</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>10619.9962</v>
       </c>
-      <c r="K3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7.3194</v>
+      <c r="K3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>7.3193999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="5">
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.244199999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8.2277</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.2607</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="4">
+        <v>8.2441999999999993</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.2277000000000005</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.2606999999999999</v>
+      </c>
+      <c r="E4" s="5">
         <v>2647.5607</v>
       </c>
-      <c r="F4" s="1">
-        <v>1210.5512</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="5">
+        <v>1210.5512000000001</v>
+      </c>
+      <c r="H4" s="5">
         <v>21783.3351</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <v>21783.3351</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <v>20000</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>7.5541</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="5">
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>8.9413</v>
       </c>
-      <c r="C5" s="1">
-        <v>8.923400000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8.959199999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3858.1119</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="C5" s="4">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.9591999999999992</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3858.1118999999999</v>
+      </c>
+      <c r="F5" s="5">
         <v>1116.1711</v>
       </c>
-      <c r="H5" s="1">
-        <v>34427.4753</v>
+      <c r="H5" s="5">
+        <v>34427.475299999998</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>34427.4753</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="J5" s="5">
+        <v>34427.475299999998</v>
+      </c>
+      <c r="K5" s="5">
         <v>30000</v>
       </c>
-      <c r="L5" s="1">
-        <v>7.7758</v>
+      <c r="L5" s="4">
+        <v>7.7758000000000003</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="5">
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>8.9801</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.9621</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8.998100000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4974.2829</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1111.3457</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44580.0211</v>
+      <c r="B6" s="4">
+        <v>8.9801000000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.9620999999999995</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.9981000000000009</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4974.2829000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1111.3457000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>44580.021099999998</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>44580.0211</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="J6" s="5">
+        <v>44580.021099999998</v>
+      </c>
+      <c r="K6" s="5">
         <v>40000</v>
       </c>
-      <c r="L6" s="1">
-        <v>8.041399999999999</v>
+      <c r="L6" s="4">
+        <v>8.0413999999999994</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="5">
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>8.6477</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.6304</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8.664999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6085.6287</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="4">
+        <v>8.6477000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6303999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.6649999999999991</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6085.6287000000002</v>
+      </c>
+      <c r="F7" s="5">
         <v>1154.0681</v>
       </c>
-      <c r="H7" s="1">
-        <v>52521.4096</v>
+      <c r="H7" s="5">
+        <v>52521.409599999999</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>52521.4096</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="J7" s="5">
+        <v>52521.409599999999</v>
+      </c>
+      <c r="K7" s="5">
         <v>50000</v>
       </c>
-      <c r="L7" s="1">
-        <v>8.216100000000001</v>
+      <c r="L7" s="4">
+        <v>8.2161000000000008</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="N7" s="1">
-        <v>2238.4273</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-7761.5727</v>
+      <c r="N7" s="5">
+        <v>2238.4272999999998</v>
+      </c>
+      <c r="O7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-7761.5726999999997</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.7699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>9.568899999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.549799999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.588100000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7239.6968</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1081.8693</v>
-      </c>
-      <c r="H8" s="1">
-        <v>69137.65609999999</v>
+      <c r="B8" s="4">
+        <v>9.5688999999999993</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.5497999999999994</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9.5881000000000007</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7239.6967999999997</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1081.8693000000001</v>
+      </c>
+      <c r="H8" s="5">
+        <v>69137.656099999993</v>
       </c>
       <c r="I8" s="1">
-        <v>2238.4273</v>
-      </c>
-      <c r="J8" s="1">
-        <v>71376.0834</v>
-      </c>
-      <c r="K8" s="1">
+        <v>2238.4272999999998</v>
+      </c>
+      <c r="J8" s="5">
+        <v>71376.083400000003</v>
+      </c>
+      <c r="K8" s="5">
         <v>60000</v>
       </c>
-      <c r="L8" s="1">
-        <v>8.287599999999999</v>
+      <c r="L8" s="4">
+        <v>8.2875999999999994</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="5">
         <v>-10373.0712</v>
       </c>
       <c r="Q8" s="3">
         <v>0.1416</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>9.429399999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.410500000000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9.4483</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="4">
+        <v>9.4293999999999993</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.4105000000000008</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.4482999999999997</v>
+      </c>
+      <c r="E9" s="5">
         <v>8321.5661</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>1097.877</v>
       </c>
-      <c r="H9" s="1">
-        <v>78310.0975</v>
+      <c r="H9" s="5">
+        <v>78310.097500000003</v>
       </c>
       <c r="I9" s="1">
         <v>1865.3561</v>
       </c>
-      <c r="J9" s="1">
-        <v>80175.45359999999</v>
-      </c>
-      <c r="K9" s="1">
-        <v>70373.07120000001</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8.4567</v>
+      <c r="J9" s="5">
+        <v>80175.453599999993</v>
+      </c>
+      <c r="K9" s="5">
+        <v>70373.071200000006</v>
+      </c>
+      <c r="L9" s="4">
+        <v>8.4566999999999997</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="5">
         <v>-10373.0712</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>9.603999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.5848</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9.6233</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9419.4431</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="B10" s="4">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.5847999999999995</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.6233000000000004</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9419.4431000000004</v>
+      </c>
+      <c r="F10" s="5">
         <v>1077.9121</v>
       </c>
-      <c r="H10" s="1">
-        <v>90283.4779</v>
+      <c r="H10" s="5">
+        <v>90283.477899999998</v>
       </c>
       <c r="I10" s="1">
-        <v>1492.2849</v>
-      </c>
-      <c r="J10" s="1">
-        <v>91775.7628</v>
-      </c>
-      <c r="K10" s="1">
-        <v>80746.1424</v>
-      </c>
-      <c r="L10" s="1">
-        <v>8.5723</v>
+        <v>1492.2849000000001</v>
+      </c>
+      <c r="J10" s="5">
+        <v>91775.762799999997</v>
+      </c>
+      <c r="K10" s="5">
+        <v>80746.142399999997</v>
+      </c>
+      <c r="L10" s="4">
+        <v>8.5723000000000003</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="5">
         <v>-10373.0712</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>10.3595</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10.3388</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="4">
+        <v>10.359500000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10.338800000000001</v>
+      </c>
+      <c r="D11" s="4">
         <v>10.3803</v>
       </c>
-      <c r="E11" s="1">
-        <v>10497.3551</v>
-      </c>
-      <c r="F11" s="1">
-        <v>999.3036</v>
-      </c>
-      <c r="H11" s="1">
-        <v>108530.0553</v>
+      <c r="E11" s="5">
+        <v>10497.355100000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>999.30359999999996</v>
+      </c>
+      <c r="H11" s="5">
+        <v>108530.05530000001</v>
       </c>
       <c r="I11" s="1">
         <v>1119.2137</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="5">
         <v>109649.269</v>
       </c>
-      <c r="K11" s="1">
-        <v>91119.21369999999</v>
-      </c>
-      <c r="L11" s="1">
-        <v>8.680199999999999</v>
+      <c r="K11" s="5">
+        <v>91119.213699999993</v>
+      </c>
+      <c r="L11" s="4">
+        <v>8.6801999999999992</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="5">
         <v>-10373.0712</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>10.0875</v>
       </c>
-      <c r="C12" s="1">
-        <v>10.0673</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.1077</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="4">
+        <v>10.067299999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.107699999999999</v>
+      </c>
+      <c r="E12" s="5">
         <v>11496.6587</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>1026.2544</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>115740.3126</v>
       </c>
       <c r="I12" s="1">
-        <v>746.1424</v>
-      </c>
-      <c r="J12" s="1">
+        <v>746.14239999999995</v>
+      </c>
+      <c r="J12" s="5">
         <v>116486.455</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="5">
         <v>101492.2849</v>
       </c>
-      <c r="L12" s="1">
-        <v>8.827999999999999</v>
+      <c r="L12" s="4">
+        <v>8.8279999999999994</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="5">
         <v>-10373.0712</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.64E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>10.1692</v>
       </c>
-      <c r="C13" s="1">
-        <v>10.1489</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="4">
+        <v>10.148899999999999</v>
+      </c>
+      <c r="D13" s="4">
         <v>10.1896</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>12522.9131</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <v>1018.0057</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <v>127093.7928</v>
       </c>
       <c r="I13" s="1">
-        <v>373.0712</v>
-      </c>
-      <c r="J13" s="1">
-        <v>127466.8641</v>
-      </c>
-      <c r="K13" s="1">
+        <v>373.07119999999998</v>
+      </c>
+      <c r="J13" s="5">
+        <v>127466.86410000001</v>
+      </c>
+      <c r="K13" s="5">
         <v>111865.3561</v>
       </c>
-      <c r="L13" s="1">
-        <v>8.9329</v>
+      <c r="L13" s="4">
+        <v>8.9329000000000001</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
-      <c r="N13" s="1">
-        <v>3104.0979</v>
-      </c>
-      <c r="O13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-7268.9734</v>
+      <c r="N13" s="5">
+        <v>3104.0979000000002</v>
+      </c>
+      <c r="O13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>-7268.9733999999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>11.0872</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="4">
+        <v>11.087199999999999</v>
+      </c>
+      <c r="C14" s="4">
         <v>11.065</v>
       </c>
-      <c r="D14" s="1">
-        <v>11.1094</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13540.9188</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-13540.9188</v>
-      </c>
-      <c r="H14" s="1">
-        <v>149830.267</v>
+      <c r="D14" s="4">
+        <v>11.109400000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>13540.918799999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-13540.918799999999</v>
+      </c>
+      <c r="H14" s="5">
+        <v>149830.26699999999</v>
       </c>
       <c r="I14" s="1">
-        <v>3104.0979</v>
-      </c>
-      <c r="J14" s="1">
-        <v>152934.3648</v>
-      </c>
-      <c r="K14" s="1">
+        <v>3104.0979000000002</v>
+      </c>
+      <c r="J14" s="5">
+        <v>152934.36480000001</v>
+      </c>
+      <c r="K14" s="5">
         <v>122238.4273</v>
       </c>
-      <c r="L14" s="1">
-        <v>9.0273</v>
+      <c r="L14" s="4">
+        <v>9.0273000000000003</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149830.267</v>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>149830.26699999999</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1125</v>
@@ -1369,33 +1420,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1448,687 +1501,688 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>7.3047</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.2901</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7.3194</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1366.2322</v>
+      <c r="B2" s="4">
+        <v>7.3047000000000004</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.2900999999999998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.3193999999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1366.2321999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="5">
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>7.7888</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.7732</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.8044</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1366.2322</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1206.7107</v>
+      <c r="B3" s="4">
+        <v>7.7888000000000002</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.7732000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.8044000000000002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1366.2321999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1206.7107000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>10619.9962</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>10619.9962</v>
       </c>
-      <c r="K3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7.3194</v>
+      <c r="K3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>7.3193999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-9417.653200000001</v>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="5">
+        <v>-9417.6532000000007</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.244199999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8.2277</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.2607</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="4">
+        <v>8.2441999999999993</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.2277000000000005</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.2606999999999999</v>
+      </c>
+      <c r="E4" s="5">
         <v>2572.9429</v>
       </c>
-      <c r="F4" s="1">
-        <v>1073.2765</v>
+      <c r="F4" s="5">
+        <v>1073.2764999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
-      <c r="H4" s="1">
-        <v>21169.4026</v>
+      <c r="H4" s="5">
+        <v>21169.402600000001</v>
       </c>
       <c r="I4" s="1">
-        <v>582.3468</v>
-      </c>
-      <c r="J4" s="1">
-        <v>21751.7494</v>
-      </c>
-      <c r="K4" s="1">
-        <v>19417.6532</v>
-      </c>
-      <c r="L4" s="1">
-        <v>7.5469</v>
+        <v>582.34680000000003</v>
+      </c>
+      <c r="J4" s="5">
+        <v>21751.749400000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>19417.653200000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7.5468999999999999</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-8866.015600000001</v>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="5">
+        <v>-8866.0156000000006</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>8.9413</v>
       </c>
-      <c r="C5" s="1">
-        <v>8.923400000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8.959199999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3646.2195</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="C5" s="4">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.9591999999999992</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3646.2195000000002</v>
+      </c>
+      <c r="F5" s="5">
         <v>836.3768</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="H5" s="1">
-        <v>32536.6749</v>
+      <c r="H5" s="5">
+        <v>32536.674900000002</v>
       </c>
       <c r="I5" s="1">
-        <v>1716.3312</v>
-      </c>
-      <c r="J5" s="1">
-        <v>34253.0061</v>
-      </c>
-      <c r="K5" s="1">
-        <v>28283.6688</v>
-      </c>
-      <c r="L5" s="1">
-        <v>7.757</v>
+        <v>1716.3312000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>34253.006099999999</v>
+      </c>
+      <c r="K5" s="5">
+        <v>28283.668799999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>7.7569999999999997</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-7493.2674</v>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="5">
+        <v>-7493.2673999999997</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>8.9801</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.9621</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8.998100000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4482.5963</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1096.4532</v>
+      <c r="B6" s="4">
+        <v>8.9801000000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.9620999999999995</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.9981000000000009</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4482.5963000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1096.4531999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="H6" s="1">
-        <v>40173.4765</v>
+      <c r="H6" s="5">
+        <v>40173.476499999997</v>
       </c>
       <c r="I6" s="1">
-        <v>4223.0638</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44396.5403</v>
-      </c>
-      <c r="K6" s="1">
-        <v>35776.9362</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7.9813</v>
+        <v>4223.0637999999999</v>
+      </c>
+      <c r="J6" s="5">
+        <v>44396.540300000001</v>
+      </c>
+      <c r="K6" s="5">
+        <v>35776.936199999996</v>
+      </c>
+      <c r="L6" s="4">
+        <v>7.9813000000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-9865.995800000001</v>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="5">
+        <v>-9865.9958000000006</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>8.6477</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.6304</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8.664999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5579.0496</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="4">
+        <v>8.6477000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6303999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.6649999999999991</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5579.0496000000003</v>
+      </c>
+      <c r="F7" s="5">
         <v>1373.1195</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="H7" s="1">
-        <v>48149.4293</v>
+      <c r="H7" s="5">
+        <v>48149.429300000003</v>
       </c>
       <c r="I7" s="1">
-        <v>4357.068</v>
-      </c>
-      <c r="J7" s="1">
-        <v>52506.4973</v>
-      </c>
-      <c r="K7" s="1">
-        <v>45642.932</v>
-      </c>
-      <c r="L7" s="1">
-        <v>8.181100000000001</v>
+        <v>4357.0680000000002</v>
+      </c>
+      <c r="J7" s="5">
+        <v>52506.497300000003</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45642.932000000001</v>
+      </c>
+      <c r="L7" s="4">
+        <v>8.1811000000000007</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="5">
         <v>2017.1683</v>
       </c>
-      <c r="O7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="O7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="5">
         <v>-9880.9123</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>9.568899999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.549799999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.588100000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6952.1691</v>
-      </c>
-      <c r="F8" s="1">
-        <v>377.8274</v>
+      <c r="B8" s="4">
+        <v>9.5688999999999993</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.5497999999999994</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9.5881000000000007</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6952.1691000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>377.82740000000001</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="H8" s="1">
-        <v>66391.8242</v>
+      <c r="H8" s="5">
+        <v>66391.824200000003</v>
       </c>
       <c r="I8" s="1">
-        <v>4476.1557</v>
-      </c>
-      <c r="J8" s="1">
-        <v>70867.97990000001</v>
-      </c>
-      <c r="K8" s="1">
-        <v>57541.0127</v>
-      </c>
-      <c r="L8" s="1">
-        <v>8.2767</v>
+        <v>4476.1557000000003</v>
+      </c>
+      <c r="J8" s="5">
+        <v>70867.979900000006</v>
+      </c>
+      <c r="K8" s="5">
+        <v>57541.012699999999</v>
+      </c>
+      <c r="L8" s="4">
+        <v>8.2766999999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-3622.6465</v>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-3622.6464999999998</v>
       </c>
       <c r="Q8" s="3">
         <v>0.1338</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>9.429399999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.410500000000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9.4483</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="4">
+        <v>9.4293999999999993</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.4105000000000008</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.4482999999999997</v>
+      </c>
+      <c r="E9" s="5">
         <v>7329.9964</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>1171.1459</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="H9" s="1">
-        <v>68978.93150000001</v>
+      <c r="H9" s="5">
+        <v>68978.931500000006</v>
       </c>
       <c r="I9" s="1">
-        <v>10853.5091</v>
-      </c>
-      <c r="J9" s="1">
-        <v>79832.4406</v>
-      </c>
-      <c r="K9" s="1">
-        <v>61163.6592</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8.3443</v>
+        <v>10853.509099999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>79832.440600000002</v>
+      </c>
+      <c r="K9" s="5">
+        <v>61163.659200000002</v>
+      </c>
+      <c r="L9" s="4">
+        <v>8.3443000000000005</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-11065.3378</v>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-11065.337799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>9.603999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.5848</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9.6233</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8501.1423</v>
-      </c>
-      <c r="F10" s="1">
-        <v>888.7249</v>
+      <c r="B10" s="4">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.5847999999999995</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.6233000000000004</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8501.1422999999995</v>
+      </c>
+      <c r="F10" s="5">
+        <v>888.72490000000005</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="H10" s="1">
-        <v>81481.7491</v>
+      <c r="H10" s="5">
+        <v>81481.749100000001</v>
       </c>
       <c r="I10" s="1">
         <v>9788.1713</v>
       </c>
-      <c r="J10" s="1">
-        <v>91269.9204</v>
-      </c>
-      <c r="K10" s="1">
-        <v>72228.997</v>
-      </c>
-      <c r="L10" s="1">
-        <v>8.4964</v>
+      <c r="J10" s="5">
+        <v>91269.920400000003</v>
+      </c>
+      <c r="K10" s="5">
+        <v>72228.997000000003</v>
+      </c>
+      <c r="L10" s="4">
+        <v>8.4963999999999995</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-8552.4668</v>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-8552.4668000000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>10.3595</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10.3388</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="4">
+        <v>10.359500000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10.338800000000001</v>
+      </c>
+      <c r="D11" s="4">
         <v>10.3803</v>
       </c>
-      <c r="E11" s="1">
-        <v>9389.8673</v>
-      </c>
-      <c r="F11" s="1">
-        <v>282.4351</v>
+      <c r="E11" s="5">
+        <v>9389.8672999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>282.43509999999998</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="H11" s="1">
-        <v>97079.9599</v>
+      <c r="H11" s="5">
+        <v>97079.959900000002</v>
       </c>
       <c r="I11" s="1">
         <v>11235.7045</v>
       </c>
-      <c r="J11" s="1">
-        <v>108315.6644</v>
-      </c>
-      <c r="K11" s="1">
-        <v>80781.4638</v>
-      </c>
-      <c r="L11" s="1">
-        <v>8.603</v>
+      <c r="J11" s="5">
+        <v>108315.66439999999</v>
+      </c>
+      <c r="K11" s="5">
+        <v>80781.463799999998</v>
+      </c>
+      <c r="L11" s="4">
+        <v>8.6029999999999998</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-2931.7611</v>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-2931.7611000000002</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6.9599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>10.0875</v>
       </c>
-      <c r="C12" s="1">
-        <v>10.0673</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.1077</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9672.3024</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1254.1625</v>
+      <c r="C12" s="4">
+        <v>10.067299999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.107699999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9672.3024000000005</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1254.1624999999999</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="H12" s="1">
-        <v>97373.9699</v>
+      <c r="H12" s="5">
+        <v>97373.969899999996</v>
       </c>
       <c r="I12" s="1">
         <v>18303.9434</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
         <v>115677.9133</v>
       </c>
-      <c r="K12" s="1">
-        <v>83713.22500000001</v>
-      </c>
-      <c r="L12" s="1">
-        <v>8.6549</v>
+      <c r="K12" s="5">
+        <v>83713.225000000006</v>
+      </c>
+      <c r="L12" s="4">
+        <v>8.6548999999999996</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="5">
         <v>-12676.6983</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.23E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>10.1692</v>
       </c>
-      <c r="C13" s="1">
-        <v>10.1489</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="4">
+        <v>10.148899999999999</v>
+      </c>
+      <c r="D13" s="4">
         <v>10.1896</v>
       </c>
-      <c r="E13" s="1">
-        <v>10926.4649</v>
-      </c>
-      <c r="F13" s="1">
-        <v>897.4766</v>
+      <c r="E13" s="5">
+        <v>10926.464900000001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>897.47659999999996</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <v>110891.5995</v>
       </c>
       <c r="I13" s="1">
         <v>15627.2451</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="5">
         <v>126518.8447</v>
       </c>
-      <c r="K13" s="1">
-        <v>96389.9232</v>
-      </c>
-      <c r="L13" s="1">
-        <v>8.8217</v>
+      <c r="K13" s="5">
+        <v>96389.923200000005</v>
+      </c>
+      <c r="L13" s="4">
+        <v>8.8216999999999999</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="5">
         <v>2611.5216</v>
       </c>
-      <c r="O13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-6533.4061</v>
+      <c r="O13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>-6533.4061000000002</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>11.0872</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="4">
+        <v>11.087199999999999</v>
+      </c>
+      <c r="C14" s="4">
         <v>11.065</v>
       </c>
-      <c r="D14" s="1">
-        <v>11.1094</v>
-      </c>
-      <c r="E14" s="1">
-        <v>11823.9415</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-11823.9415</v>
+      <c r="D14" s="4">
+        <v>11.109400000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>11823.941500000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-11823.941500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1">
-        <v>130831.9128</v>
+      <c r="H14" s="5">
+        <v>130831.91280000001</v>
       </c>
       <c r="I14" s="1">
         <v>19093.839</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="5">
         <v>149925.7518</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <v>105534.851</v>
       </c>
-      <c r="L14" s="1">
-        <v>8.9255</v>
+      <c r="L14" s="4">
+        <v>8.9254999999999995</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130831.9128</v>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>130831.91280000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0982</v>
+        <v>9.8199999999999996E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2137,33 +2191,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2216,24 +2269,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.2901</v>
+        <v>7.2900999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3194</v>
+        <v>7.3193999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1366.2322</v>
+        <v>1366.2321999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2263,21 +2316,21 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7732</v>
+        <v>7.7732000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>7.8044</v>
+        <v>7.8044000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1366.2322</v>
+        <v>1366.2321999999999</v>
       </c>
       <c r="F3" s="1">
         <v>1213.1431</v>
@@ -2298,7 +2351,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3194</v>
+        <v>7.3193999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,48 +2363,48 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9467.8539</v>
+        <v>-9467.8539000000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>8.2277</v>
+        <v>8.2277000000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>8.2607</v>
+        <v>8.2606999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2579.3753</v>
+        <v>2579.3753000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>1085.1057</v>
+        <v>1085.1057000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21222.3261</v>
+        <v>21222.326099999998</v>
       </c>
       <c r="I4" s="1">
-        <v>532.1461</v>
+        <v>532.14610000000005</v>
       </c>
       <c r="J4" s="1">
         <v>21754.4722</v>
       </c>
       <c r="K4" s="1">
-        <v>19467.8539</v>
+        <v>19467.853899999998</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5475</v>
+        <v>7.5475000000000003</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,13 +2416,13 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8963.732400000001</v>
+        <v>-8963.7324000000008</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2377,34 +2430,34 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.923400000000001</v>
+        <v>8.9234000000000009</v>
       </c>
       <c r="D5" s="1">
-        <v>8.959199999999999</v>
+        <v>8.9591999999999992</v>
       </c>
       <c r="E5" s="1">
-        <v>3664.481</v>
+        <v>3664.4810000000002</v>
       </c>
       <c r="F5" s="1">
-        <v>851.847</v>
+        <v>851.84699999999998</v>
       </c>
       <c r="G5" s="1">
-        <v>40301.0012</v>
+        <v>40301.001199999999</v>
       </c>
       <c r="H5" s="1">
-        <v>32699.6294</v>
+        <v>32699.629400000002</v>
       </c>
       <c r="I5" s="1">
-        <v>1568.4137</v>
+        <v>1568.4137000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>34268.0431</v>
+        <v>34268.043100000003</v>
       </c>
       <c r="K5" s="1">
-        <v>28431.5863</v>
+        <v>28431.586299999999</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7587</v>
+        <v>7.7587000000000002</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,48 +2469,48 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7631.868</v>
+        <v>-7631.8680000000004</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07920000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.9200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9621</v>
+        <v>8.9620999999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>8.998100000000001</v>
+        <v>8.9981000000000009</v>
       </c>
       <c r="E6" s="1">
-        <v>4516.328</v>
+        <v>4516.3280000000004</v>
       </c>
       <c r="F6" s="1">
         <v>1118.7917</v>
       </c>
       <c r="G6" s="1">
-        <v>50502.5063</v>
+        <v>50502.506300000001</v>
       </c>
       <c r="H6" s="1">
-        <v>40475.7831</v>
+        <v>40475.783100000001</v>
       </c>
       <c r="I6" s="1">
-        <v>3936.5457</v>
+        <v>3936.5457000000001</v>
       </c>
       <c r="J6" s="1">
         <v>44412.3289</v>
       </c>
       <c r="K6" s="1">
-        <v>36063.4543</v>
+        <v>36063.454299999998</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9851</v>
+        <v>7.9851000000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,54 +2522,54 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10066.9996</v>
+        <v>-10066.999599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6304</v>
+        <v>8.6303999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>8.664999999999999</v>
+        <v>8.6649999999999991</v>
       </c>
       <c r="E7" s="1">
-        <v>5635.1197</v>
+        <v>5635.1197000000002</v>
       </c>
       <c r="F7" s="1">
-        <v>1404.533</v>
+        <v>1404.5329999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>60755.0188</v>
+        <v>60755.018799999998</v>
       </c>
       <c r="H7" s="1">
-        <v>48633.3371</v>
+        <v>48633.337099999997</v>
       </c>
       <c r="I7" s="1">
         <v>3869.5461</v>
       </c>
       <c r="J7" s="1">
-        <v>52502.8832</v>
+        <v>52502.883199999997</v>
       </c>
       <c r="K7" s="1">
         <v>46130.4539</v>
       </c>
       <c r="L7" s="1">
-        <v>8.186199999999999</v>
+        <v>8.1861999999999995</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2032.3476</v>
+        <v>2032.3476000000001</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
@@ -2525,45 +2578,45 @@
         <v>-10137.931</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>9.549799999999999</v>
+        <v>9.5497999999999994</v>
       </c>
       <c r="D8" s="1">
-        <v>9.588100000000001</v>
+        <v>9.5881000000000007</v>
       </c>
       <c r="E8" s="1">
-        <v>7039.6527</v>
+        <v>7039.6526999999996</v>
       </c>
       <c r="F8" s="1">
-        <v>401.2145</v>
+        <v>401.21449999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>71058.7939</v>
+        <v>71058.793900000004</v>
       </c>
       <c r="H8" s="1">
-        <v>67227.2755</v>
+        <v>67227.275500000003</v>
       </c>
       <c r="I8" s="1">
         <v>3731.6151</v>
       </c>
       <c r="J8" s="1">
-        <v>70958.8906</v>
+        <v>70958.890599999999</v>
       </c>
       <c r="K8" s="1">
-        <v>58300.7325</v>
+        <v>58300.732499999998</v>
       </c>
       <c r="L8" s="1">
-        <v>8.2818</v>
+        <v>8.2818000000000005</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2581,42 +2634,42 @@
         <v>0.1353</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>9.410500000000001</v>
+        <v>9.4105000000000008</v>
       </c>
       <c r="D9" s="1">
-        <v>9.4483</v>
+        <v>9.4482999999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>7440.8672</v>
+        <v>7440.8671999999997</v>
       </c>
       <c r="F9" s="1">
-        <v>1210.5421</v>
+        <v>1210.5420999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>81414.0879</v>
+        <v>81414.087899999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70022.28109999999</v>
+        <v>70022.281099999993</v>
       </c>
       <c r="I9" s="1">
         <v>9884.7302</v>
       </c>
       <c r="J9" s="1">
-        <v>79907.0113</v>
+        <v>79907.011299999998</v>
       </c>
       <c r="K9" s="1">
-        <v>62147.6174</v>
+        <v>62147.617400000003</v>
       </c>
       <c r="L9" s="1">
-        <v>8.3522</v>
+        <v>8.3521999999999998</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,45 +2684,45 @@
         <v>-11437.5653</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>9.5848</v>
+        <v>9.5847999999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>9.6233</v>
+        <v>9.6233000000000004</v>
       </c>
       <c r="E10" s="1">
-        <v>8651.4094</v>
+        <v>8651.4094000000005</v>
       </c>
       <c r="F10" s="1">
-        <v>928.4628</v>
+        <v>928.46280000000002</v>
       </c>
       <c r="G10" s="1">
-        <v>91821.1583</v>
+        <v>91821.158299999996</v>
       </c>
       <c r="H10" s="1">
         <v>82922.0285</v>
       </c>
       <c r="I10" s="1">
-        <v>8447.165000000001</v>
+        <v>8447.1650000000009</v>
       </c>
       <c r="J10" s="1">
-        <v>91369.19349999999</v>
+        <v>91369.193499999994</v>
       </c>
       <c r="K10" s="1">
         <v>73585.1826</v>
       </c>
       <c r="L10" s="1">
-        <v>8.505599999999999</v>
+        <v>8.5055999999999994</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,48 +2734,48 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8934.875599999999</v>
+        <v>-8934.8755999999994</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3388</v>
+        <v>10.338800000000001</v>
       </c>
       <c r="D11" s="1">
         <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>9579.872100000001</v>
+        <v>9579.8721000000005</v>
       </c>
       <c r="F11" s="1">
-        <v>312.9843</v>
+        <v>312.98430000000002</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99044.38189999999</v>
+        <v>99044.381899999993</v>
       </c>
       <c r="I11" s="1">
-        <v>9512.2894</v>
+        <v>9512.2893999999997</v>
       </c>
       <c r="J11" s="1">
         <v>108556.6712</v>
       </c>
       <c r="K11" s="1">
-        <v>82520.0582</v>
+        <v>82520.058199999999</v>
       </c>
       <c r="L11" s="1">
-        <v>8.613899999999999</v>
+        <v>8.6138999999999992</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,13 +2787,13 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3248.8711</v>
+        <v>-3248.8710999999998</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.0900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2748,34 +2801,34 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0673</v>
+        <v>10.067299999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1077</v>
+        <v>10.107699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>9892.856400000001</v>
+        <v>9892.8564000000006</v>
       </c>
       <c r="F12" s="1">
-        <v>1310.9088</v>
+        <v>1310.9087999999999</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99594.3536</v>
+        <v>99594.353600000002</v>
       </c>
       <c r="I12" s="1">
-        <v>16263.4183</v>
+        <v>16263.418299999999</v>
       </c>
       <c r="J12" s="1">
-        <v>115857.7719</v>
+        <v>115857.77190000001</v>
       </c>
       <c r="K12" s="1">
-        <v>85768.9293</v>
+        <v>85768.929300000003</v>
       </c>
       <c r="L12" s="1">
-        <v>8.6698</v>
+        <v>8.6698000000000004</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,10 +2843,10 @@
         <v>-13250.2726</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2801,7 +2854,7 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1489</v>
+        <v>10.148899999999999</v>
       </c>
       <c r="D13" s="1">
         <v>10.1896</v>
@@ -2810,16 +2863,16 @@
         <v>11203.7652</v>
       </c>
       <c r="F13" s="1">
-        <v>950.8155</v>
+        <v>950.81550000000004</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113705.8926</v>
+        <v>113705.89260000001</v>
       </c>
       <c r="I13" s="1">
-        <v>13013.1457</v>
+        <v>13013.145699999999</v>
       </c>
       <c r="J13" s="1">
         <v>126719.0384</v>
@@ -2828,36 +2881,36 @@
         <v>99019.2019</v>
       </c>
       <c r="L13" s="1">
-        <v>8.837999999999999</v>
+        <v>8.8379999999999992</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2671.0712</v>
+        <v>2671.0711999999999</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7017.358</v>
+        <v>-7017.3580000000002</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
         <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1094</v>
+        <v>11.109400000000001</v>
       </c>
       <c r="E14" s="1">
         <v>12154.5807</v>
@@ -2872,16 +2925,16 @@
         <v>134490.4351</v>
       </c>
       <c r="I14" s="1">
-        <v>15995.7877</v>
+        <v>15995.787700000001</v>
       </c>
       <c r="J14" s="1">
-        <v>150486.2228</v>
+        <v>150486.22279999999</v>
       </c>
       <c r="K14" s="1">
         <v>108707.6311</v>
       </c>
       <c r="L14" s="1">
-        <v>8.9438</v>
+        <v>8.9437999999999995</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2905,33 +2958,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2984,24 +3036,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.2901</v>
+        <v>7.2900999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3194</v>
+        <v>7.3193999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1366.2322</v>
+        <v>1366.2321999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3031,24 +3083,24 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7732</v>
+        <v>7.7732000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>7.8044</v>
+        <v>7.8044000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1366.2322</v>
+        <v>1366.2321999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>1219.5754</v>
+        <v>1219.5753999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
@@ -3066,7 +3118,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3194</v>
+        <v>7.3193999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,27 +3130,27 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9518.054599999999</v>
+        <v>-9518.0545999999995</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>8.2277</v>
+        <v>8.2277000000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>8.2607</v>
+        <v>8.2606999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2585.8076</v>
+        <v>2585.8076000000001</v>
       </c>
       <c r="F4" s="1">
         <v>1096.9956</v>
@@ -3107,19 +3159,19 @@
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21275.2496</v>
+        <v>21275.249599999999</v>
       </c>
       <c r="I4" s="1">
-        <v>481.9454</v>
+        <v>481.94540000000001</v>
       </c>
       <c r="J4" s="1">
         <v>21757.195</v>
       </c>
       <c r="K4" s="1">
-        <v>19518.0546</v>
+        <v>19518.054599999999</v>
       </c>
       <c r="L4" s="1">
-        <v>7.5481</v>
+        <v>7.5480999999999998</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,13 +3183,13 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9061.951300000001</v>
+        <v>-9061.9513000000006</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3145,34 +3197,34 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.923400000000001</v>
+        <v>8.9234000000000009</v>
       </c>
       <c r="D5" s="1">
-        <v>8.959199999999999</v>
+        <v>8.9591999999999992</v>
       </c>
       <c r="E5" s="1">
-        <v>3682.8032</v>
+        <v>3682.8031999999998</v>
       </c>
       <c r="F5" s="1">
-        <v>867.4814</v>
+        <v>867.48140000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32863.1262</v>
+        <v>32863.126199999999</v>
       </c>
       <c r="I5" s="1">
-        <v>1419.9941</v>
+        <v>1419.9940999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>34283.1203</v>
+        <v>34283.120300000002</v>
       </c>
       <c r="K5" s="1">
         <v>28580.0059</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7604</v>
+        <v>7.7603999999999997</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,24 +3236,24 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7771.9396</v>
+        <v>-7771.9395999999997</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.9500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9621</v>
+        <v>8.9620999999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>8.998100000000001</v>
+        <v>8.9981000000000009</v>
       </c>
       <c r="E6" s="1">
         <v>4550.2846</v>
@@ -3216,16 +3268,16 @@
         <v>40780.106</v>
       </c>
       <c r="I6" s="1">
-        <v>3648.0545</v>
+        <v>3648.0545000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>44428.1605</v>
+        <v>44428.160499999998</v>
       </c>
       <c r="K6" s="1">
-        <v>36351.9455</v>
+        <v>36351.945500000002</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9889</v>
+        <v>7.9889000000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,45 +3289,45 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10271.0369</v>
+        <v>-10271.036899999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6304</v>
+        <v>8.6303999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>8.664999999999999</v>
+        <v>8.6649999999999991</v>
       </c>
       <c r="E7" s="1">
-        <v>5691.7519</v>
+        <v>5691.7519000000002</v>
       </c>
       <c r="F7" s="1">
         <v>1436.5562</v>
       </c>
       <c r="G7" s="1">
-        <v>61520.1506</v>
+        <v>61520.150600000001</v>
       </c>
       <c r="H7" s="1">
-        <v>49122.096</v>
+        <v>49122.095999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>3377.0176</v>
+        <v>3377.0176000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>52499.1136</v>
+        <v>52499.113599999997</v>
       </c>
       <c r="K7" s="1">
-        <v>46622.9824</v>
+        <v>46622.982400000001</v>
       </c>
       <c r="L7" s="1">
         <v>8.1913</v>
@@ -3284,7 +3336,7 @@
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2047.6281</v>
+        <v>2047.6280999999999</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
@@ -3293,45 +3345,45 @@
         <v>-10400.1314</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>9.549799999999999</v>
+        <v>9.5497999999999994</v>
       </c>
       <c r="D8" s="1">
-        <v>9.588100000000001</v>
+        <v>9.5881000000000007</v>
       </c>
       <c r="E8" s="1">
-        <v>7128.3081</v>
+        <v>7128.3081000000002</v>
       </c>
       <c r="F8" s="1">
         <v>425.2901</v>
       </c>
       <c r="G8" s="1">
-        <v>72135.3521</v>
+        <v>72135.352100000004</v>
       </c>
       <c r="H8" s="1">
-        <v>68073.91710000001</v>
+        <v>68073.917100000006</v>
       </c>
       <c r="I8" s="1">
-        <v>2976.8862</v>
+        <v>2976.8861999999999</v>
       </c>
       <c r="J8" s="1">
         <v>71050.8033</v>
       </c>
       <c r="K8" s="1">
-        <v>59070.7419</v>
+        <v>59070.741900000001</v>
       </c>
       <c r="L8" s="1">
-        <v>8.286799999999999</v>
+        <v>8.2867999999999995</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,48 +3395,48 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4077.7236</v>
+        <v>-4077.7235999999998</v>
       </c>
       <c r="Q8" s="3">
         <v>0.1368</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>9.410500000000001</v>
+        <v>9.4105000000000008</v>
       </c>
       <c r="D9" s="1">
-        <v>9.4483</v>
+        <v>9.4482999999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>7553.5982</v>
+        <v>7553.5982000000004</v>
       </c>
       <c r="F9" s="1">
-        <v>1251.1099</v>
+        <v>1251.1098999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>82856.7056</v>
+        <v>82856.705600000001</v>
       </c>
       <c r="H9" s="1">
-        <v>71083.13589999999</v>
+        <v>71083.135899999994</v>
       </c>
       <c r="I9" s="1">
-        <v>8899.1626</v>
+        <v>8899.1625999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>79982.2985</v>
+        <v>79982.298500000004</v>
       </c>
       <c r="K9" s="1">
-        <v>63148.4655</v>
+        <v>63148.465499999998</v>
       </c>
       <c r="L9" s="1">
-        <v>8.360099999999999</v>
+        <v>8.3600999999999992</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,48 +3448,48 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11820.8617</v>
+        <v>-11820.861699999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.32E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>9.5848</v>
+        <v>9.5847999999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>9.6233</v>
+        <v>9.6233000000000004</v>
       </c>
       <c r="E10" s="1">
-        <v>8804.7081</v>
+        <v>8804.7080999999998</v>
       </c>
       <c r="F10" s="1">
-        <v>969.6505</v>
+        <v>969.65049999999997</v>
       </c>
       <c r="G10" s="1">
-        <v>93685.2727</v>
+        <v>93685.272700000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84391.36629999999</v>
+        <v>84391.366299999994</v>
       </c>
       <c r="I10" s="1">
-        <v>7078.3009</v>
+        <v>7078.3009000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>91469.6672</v>
+        <v>91469.667199999996</v>
       </c>
       <c r="K10" s="1">
         <v>74969.3272</v>
       </c>
       <c r="L10" s="1">
-        <v>8.514699999999999</v>
+        <v>8.5146999999999995</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,30 +3501,30 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9331.237999999999</v>
+        <v>-9331.2379999999994</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3388</v>
+        <v>10.338800000000001</v>
       </c>
       <c r="D11" s="1">
         <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>9774.3586</v>
+        <v>9774.3585999999996</v>
       </c>
       <c r="F11" s="1">
-        <v>345.0097</v>
+        <v>345.00970000000001</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
@@ -3481,16 +3533,16 @@
         <v>101055.1391</v>
       </c>
       <c r="I11" s="1">
-        <v>7747.0629</v>
+        <v>7747.0628999999999</v>
       </c>
       <c r="J11" s="1">
         <v>108802.202</v>
       </c>
       <c r="K11" s="1">
-        <v>84300.5652</v>
+        <v>84300.565199999997</v>
       </c>
       <c r="L11" s="1">
-        <v>8.624700000000001</v>
+        <v>8.6247000000000007</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,10 +3557,10 @@
         <v>-3581.3042</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.2300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3516,19 +3568,19 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0673</v>
+        <v>10.067299999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1077</v>
+        <v>10.107699999999999</v>
       </c>
       <c r="E12" s="1">
         <v>10119.3683</v>
       </c>
       <c r="F12" s="1">
-        <v>1370.1419</v>
+        <v>1370.1419000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>115668.3467</v>
+        <v>115668.34669999999</v>
       </c>
       <c r="H12" s="1">
         <v>101874.7169</v>
@@ -3537,13 +3589,13 @@
         <v>14165.7587</v>
       </c>
       <c r="J12" s="1">
-        <v>116040.4756</v>
+        <v>116040.47560000001</v>
       </c>
       <c r="K12" s="1">
-        <v>87881.8694</v>
+        <v>87881.869399999996</v>
       </c>
       <c r="L12" s="1">
-        <v>8.6845</v>
+        <v>8.6844999999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,10 +3610,10 @@
         <v>-13848.9835</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3569,7 +3621,7 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1489</v>
+        <v>10.148899999999999</v>
       </c>
       <c r="D13" s="1">
         <v>10.1896</v>
@@ -3590,66 +3642,66 @@
         <v>10316.7752</v>
       </c>
       <c r="J13" s="1">
-        <v>126922.6659</v>
+        <v>126922.66590000001</v>
       </c>
       <c r="K13" s="1">
         <v>101730.8529</v>
       </c>
       <c r="L13" s="1">
-        <v>8.854200000000001</v>
+        <v>8.8542000000000005</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2732.2295</v>
+        <v>2732.2294999999999</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7527.8917</v>
+        <v>-7527.8917000000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
         <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1094</v>
+        <v>11.109400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>12496.4312</v>
+        <v>12496.431200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-12496.4312</v>
+        <v>-12496.431200000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>138273.0107</v>
+        <v>138273.01070000001</v>
       </c>
       <c r="I14" s="1">
-        <v>12788.8836</v>
+        <v>12788.883599999999</v>
       </c>
       <c r="J14" s="1">
-        <v>151061.8943</v>
+        <v>151061.89430000001</v>
       </c>
       <c r="K14" s="1">
         <v>111990.974</v>
       </c>
       <c r="L14" s="1">
-        <v>8.9618</v>
+        <v>8.9618000000000002</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>138273.0107</v>
+        <v>138273.01070000001</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1033</v>
@@ -3673,33 +3725,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -3752,24 +3803,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.3047</v>
+        <v>7.3047000000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.2901</v>
+        <v>7.2900999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>7.3194</v>
+        <v>7.3193999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1366.2322</v>
+        <v>1366.2321999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3799,24 +3850,24 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.7888</v>
+        <v>7.7888000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>7.7732</v>
+        <v>7.7732000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>7.8044</v>
+        <v>7.8044000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1366.2322</v>
+        <v>1366.2321999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>1226.0078</v>
+        <v>1226.0078000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
@@ -3834,7 +3885,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>7.3194</v>
+        <v>7.3193999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,30 +3897,30 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9568.255300000001</v>
+        <v>-9568.2553000000007</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2441999999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>8.2277</v>
+        <v>8.2277000000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>8.2607</v>
+        <v>8.2606999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>2592.24</v>
+        <v>2592.2399999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>1108.9462</v>
+        <v>1108.9462000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
@@ -3878,13 +3929,13 @@
         <v>21328.1731</v>
       </c>
       <c r="I4" s="1">
-        <v>431.7447</v>
+        <v>431.74470000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>21759.9178</v>
+        <v>21759.917799999999</v>
       </c>
       <c r="K4" s="1">
-        <v>19568.2553</v>
+        <v>19568.255300000001</v>
       </c>
       <c r="L4" s="1">
         <v>7.5488</v>
@@ -3899,13 +3950,13 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9160.6721</v>
+        <v>-9160.6720999999998</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3913,22 +3964,22 @@
         <v>8.9413</v>
       </c>
       <c r="C5" s="1">
-        <v>8.923400000000001</v>
+        <v>8.9234000000000009</v>
       </c>
       <c r="D5" s="1">
-        <v>8.959199999999999</v>
+        <v>8.9591999999999992</v>
       </c>
       <c r="E5" s="1">
-        <v>3701.1862</v>
+        <v>3701.1862000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>883.2809</v>
+        <v>883.28089999999997</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>33027.1653</v>
+        <v>33027.165300000001</v>
       </c>
       <c r="I5" s="1">
         <v>1271.0726</v>
@@ -3940,7 +3991,7 @@
         <v>28728.9274</v>
       </c>
       <c r="L5" s="1">
-        <v>7.7621</v>
+        <v>7.7621000000000002</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,48 +4003,48 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7913.4899</v>
+        <v>-7913.4898999999996</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9801</v>
+        <v>8.9801000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9621</v>
+        <v>8.9620999999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>8.998100000000001</v>
+        <v>8.9981000000000009</v>
       </c>
       <c r="E6" s="1">
-        <v>4584.4671</v>
+        <v>4584.4670999999998</v>
       </c>
       <c r="F6" s="1">
-        <v>1164.4834</v>
+        <v>1164.4834000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>51522.6693</v>
+        <v>51522.669300000001</v>
       </c>
       <c r="H6" s="1">
-        <v>41086.4526</v>
+        <v>41086.452599999997</v>
       </c>
       <c r="I6" s="1">
-        <v>3357.5826</v>
+        <v>3357.5826000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>44444.0353</v>
+        <v>44444.035300000003</v>
       </c>
       <c r="K6" s="1">
-        <v>36642.4174</v>
+        <v>36642.417399999998</v>
       </c>
       <c r="L6" s="1">
-        <v>7.9927</v>
+        <v>7.9927000000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,54 +4056,54 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10478.138</v>
+        <v>-10478.138000000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.6477</v>
+        <v>8.6477000000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>8.6304</v>
+        <v>8.6303999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>8.664999999999999</v>
+        <v>8.6649999999999991</v>
       </c>
       <c r="E7" s="1">
-        <v>5748.9505</v>
+        <v>5748.9504999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>1469.1981</v>
+        <v>1469.1981000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>62295.5093</v>
+        <v>62295.509299999998</v>
       </c>
       <c r="H7" s="1">
-        <v>49615.7424</v>
+        <v>49615.742400000003</v>
       </c>
       <c r="I7" s="1">
-        <v>2879.4446</v>
+        <v>2879.4445999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>52495.187</v>
+        <v>52495.186999999998</v>
       </c>
       <c r="K7" s="1">
-        <v>47120.5554</v>
+        <v>47120.555399999997</v>
       </c>
       <c r="L7" s="1">
-        <v>8.196400000000001</v>
+        <v>8.1964000000000006</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>2063.0102</v>
+        <v>2063.0102000000002</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
@@ -4061,45 +4112,45 @@
         <v>-10667.591</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>9.568899999999999</v>
+        <v>9.5688999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>9.549799999999999</v>
+        <v>9.5497999999999994</v>
       </c>
       <c r="D8" s="1">
-        <v>9.588100000000001</v>
+        <v>9.5881000000000007</v>
       </c>
       <c r="E8" s="1">
-        <v>7218.1486</v>
+        <v>7218.1486000000004</v>
       </c>
       <c r="F8" s="1">
-        <v>450.0688</v>
+        <v>450.06880000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>73229.94190000001</v>
+        <v>73229.941900000005</v>
       </c>
       <c r="H8" s="1">
-        <v>68931.8751</v>
+        <v>68931.875100000005</v>
       </c>
       <c r="I8" s="1">
-        <v>2211.8536</v>
+        <v>2211.8535999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>71143.72870000001</v>
+        <v>71143.728700000007</v>
       </c>
       <c r="K8" s="1">
-        <v>59851.1566</v>
+        <v>59851.156600000002</v>
       </c>
       <c r="L8" s="1">
-        <v>8.2918</v>
+        <v>8.2918000000000003</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,48 +4162,48 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4315.3045</v>
+        <v>-4315.3045000000002</v>
       </c>
       <c r="Q8" s="3">
         <v>0.1384</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4293999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>9.410500000000001</v>
+        <v>9.4105000000000008</v>
       </c>
       <c r="D9" s="1">
-        <v>9.4483</v>
+        <v>9.4482999999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>7668.2173</v>
+        <v>7668.2173000000003</v>
       </c>
       <c r="F9" s="1">
-        <v>1292.8784</v>
+        <v>1292.8784000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>84328.39109999999</v>
+        <v>84328.391099999993</v>
       </c>
       <c r="H9" s="1">
-        <v>72161.75930000001</v>
+        <v>72161.759300000005</v>
       </c>
       <c r="I9" s="1">
-        <v>7896.5491</v>
+        <v>7896.5491000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>80058.30839999999</v>
+        <v>80058.308399999994</v>
       </c>
       <c r="K9" s="1">
-        <v>64166.461</v>
+        <v>64166.461000000003</v>
       </c>
       <c r="L9" s="1">
-        <v>8.367800000000001</v>
+        <v>8.3678000000000008</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,45 +4218,45 @@
         <v>-12215.5026</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-1.34E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>9.5848</v>
+        <v>9.5847999999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>9.6233</v>
+        <v>9.6233000000000004</v>
       </c>
       <c r="E10" s="1">
-        <v>8961.0957</v>
+        <v>8961.0956999999999</v>
       </c>
       <c r="F10" s="1">
         <v>1012.3327</v>
       </c>
       <c r="G10" s="1">
-        <v>95593.31690000001</v>
+        <v>95593.316900000005</v>
       </c>
       <c r="H10" s="1">
         <v>85890.31</v>
       </c>
       <c r="I10" s="1">
-        <v>5681.0465</v>
+        <v>5681.0465000000004</v>
       </c>
       <c r="J10" s="1">
-        <v>91571.3566</v>
+        <v>91571.356599999999</v>
       </c>
       <c r="K10" s="1">
-        <v>76381.96369999999</v>
+        <v>76381.963699999993</v>
       </c>
       <c r="L10" s="1">
-        <v>8.5237</v>
+        <v>8.5236999999999998</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,48 +4268,48 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9741.9817</v>
+        <v>-9741.9817000000003</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10.3595</v>
+        <v>10.359500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3388</v>
+        <v>10.338800000000001</v>
       </c>
       <c r="D11" s="1">
         <v>10.3803</v>
       </c>
       <c r="E11" s="1">
-        <v>9973.428400000001</v>
+        <v>9973.4284000000007</v>
       </c>
       <c r="F11" s="1">
-        <v>378.5676</v>
+        <v>378.56760000000003</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>103113.282</v>
+        <v>103113.28200000001</v>
       </c>
       <c r="I11" s="1">
-        <v>5939.0648</v>
+        <v>5939.0648000000001</v>
       </c>
       <c r="J11" s="1">
         <v>109052.3468</v>
       </c>
       <c r="K11" s="1">
-        <v>86123.9454</v>
+        <v>86123.945399999997</v>
       </c>
       <c r="L11" s="1">
-        <v>8.635300000000001</v>
+        <v>8.6353000000000009</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,13 +4321,13 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3929.6453</v>
+        <v>-3929.6453000000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4284,16 +4335,16 @@
         <v>10.0875</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0673</v>
+        <v>10.067299999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1077</v>
+        <v>10.107699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>10351.996</v>
+        <v>10351.995999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1431.9604</v>
+        <v>1431.9603999999999</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
@@ -4302,16 +4353,16 @@
         <v>104216.6498</v>
       </c>
       <c r="I12" s="1">
-        <v>12009.4196</v>
+        <v>12009.419599999999</v>
       </c>
       <c r="J12" s="1">
         <v>116226.0693</v>
       </c>
       <c r="K12" s="1">
-        <v>90053.5906</v>
+        <v>90053.590599999996</v>
       </c>
       <c r="L12" s="1">
-        <v>8.699199999999999</v>
+        <v>8.6991999999999994</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,10 +4377,10 @@
         <v>-14473.8264</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4337,7 +4388,7 @@
         <v>10.1692</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1489</v>
+        <v>10.148899999999999</v>
       </c>
       <c r="D13" s="1">
         <v>10.1896</v>
@@ -4355,7 +4406,7 @@
         <v>119594.1958</v>
       </c>
       <c r="I13" s="1">
-        <v>7535.5932</v>
+        <v>7535.5932000000003</v>
       </c>
       <c r="J13" s="1">
         <v>127129.789</v>
@@ -4364,7 +4415,7 @@
         <v>104527.417</v>
       </c>
       <c r="L13" s="1">
-        <v>8.8703</v>
+        <v>8.8703000000000003</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
@@ -4379,21 +4430,21 @@
         <v>-8066.2626</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11.0872</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C14" s="1">
         <v>11.065</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1094</v>
+        <v>11.109400000000001</v>
       </c>
       <c r="E14" s="1">
         <v>12849.8768</v>
@@ -4405,19 +4456,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>142183.8864</v>
+        <v>142183.88639999999</v>
       </c>
       <c r="I14" s="1">
-        <v>9469.3307</v>
+        <v>9469.3307000000004</v>
       </c>
       <c r="J14" s="1">
-        <v>151653.2171</v>
+        <v>151653.21710000001</v>
       </c>
       <c r="K14" s="1">
         <v>115388.7185</v>
       </c>
       <c r="L14" s="1">
-        <v>8.979799999999999</v>
+        <v>8.9797999999999991</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4480,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>142183.8864</v>
+        <v>142183.88639999999</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1059</v>
+        <v>0.10589999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4441,23 +4492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4477,81 +4526,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>11.0872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+        <v>11.087199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.0273</v>
+        <v>9.0273000000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9255</v>
+        <v>8.9254999999999995</v>
       </c>
       <c r="E3" s="1">
-        <v>8.9438</v>
+        <v>8.9437999999999995</v>
       </c>
       <c r="F3" s="1">
-        <v>8.9618</v>
+        <v>8.9618000000000002</v>
       </c>
       <c r="G3" s="1">
-        <v>8.979799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+        <v>8.9797999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3">
-        <v>0.4379</v>
+        <v>0.43790000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4831</v>
+        <v>0.48309999999999997</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4533</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4586</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0.464</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+        <v>0.46949999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3">
-        <v>0.1654</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="C5" s="3">
         <v>0.1895</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1746</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>0.177</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F5" s="3">
         <v>0.1794</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+        <v>0.18190000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -4559,42 +4608,42 @@
         <v>2.524</v>
       </c>
       <c r="C6" s="4">
-        <v>2.4418</v>
+        <v>2.4418000000000002</v>
       </c>
       <c r="D6" s="4">
-        <v>2.4793</v>
+        <v>2.4792999999999998</v>
       </c>
       <c r="E6" s="4">
-        <v>2.4763</v>
+        <v>2.4763000000000002</v>
       </c>
       <c r="F6" s="4">
-        <v>2.473</v>
+        <v>2.4729999999999999</v>
       </c>
       <c r="G6" s="4">
-        <v>2.4696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+        <v>2.4695999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5505</v>
+        <v>0.55049999999999999</v>
       </c>
       <c r="D7" s="3">
         <v>0.5645</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5644</v>
+        <v>0.56440000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5643</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+        <v>0.56420000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -4602,16 +4651,16 @@
         <v>5342.5252</v>
       </c>
       <c r="D8" s="1">
-        <v>4628.69</v>
+        <v>4628.6899999999996</v>
       </c>
       <c r="E8" s="1">
-        <v>4703.4188</v>
+        <v>4703.4188000000004</v>
       </c>
       <c r="F8" s="1">
-        <v>4779.8575</v>
+        <v>4779.8575000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4858.0491</v>
+        <v>4858.0491000000002</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P1_KFSDIV.xlsx
+++ b/output/1Y_P1_KFSDIV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paroon\PycharmProjects\DCA\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7D58D-9AA4-4956-8168-D17544BE3ACF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E26C9A-AC1B-4E38-9F18-B54C6ABBA86E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KFSDIV" sheetId="1" r:id="rId1"/>
@@ -692,28 +692,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B2:Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1423,29 +1424,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -2194,26 +2195,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -2961,26 +2965,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -3728,26 +3735,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">

--- a/output/1Y_P1_KFSDIV.xlsx
+++ b/output/1Y_P1_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5768.696</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2529</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4285</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3922</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3568</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.3222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
